--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -448,7 +448,7 @@
         <v>15386.1947</v>
       </c>
       <c r="G2" t="n">
-        <v>3.883333333333332</v>
+        <v>3.917833333333331</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>27057.6954</v>
       </c>
       <c r="G3" t="n">
-        <v>3.876666666666665</v>
+        <v>3.917999999999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>6334.5397</v>
       </c>
       <c r="G4" t="n">
-        <v>3.873333333333333</v>
+        <v>3.918166666666664</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>60704.3393</v>
       </c>
       <c r="G5" t="n">
-        <v>3.866666666666666</v>
+        <v>3.918166666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -588,16 +588,20 @@
         <v>51935.4005</v>
       </c>
       <c r="G6" t="n">
-        <v>3.866666666666666</v>
+        <v>3.91833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.86</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -623,21 +627,23 @@
         <v>103319.2177</v>
       </c>
       <c r="G7" t="n">
-        <v>3.863333333333332</v>
+        <v>3.917833333333331</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.87</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -662,7 +668,7 @@
         <v>28828.1657</v>
       </c>
       <c r="G8" t="n">
-        <v>3.863333333333332</v>
+        <v>3.917999999999998</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -674,7 +680,7 @@
         <v>3.86</v>
       </c>
       <c r="K8" t="n">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -705,25 +711,17 @@
         <v>66108.7041</v>
       </c>
       <c r="G9" t="n">
-        <v>3.856666666666666</v>
+        <v>3.916499999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -748,7 +746,7 @@
         <v>3197.1153</v>
       </c>
       <c r="G10" t="n">
-        <v>3.856666666666666</v>
+        <v>3.915833333333331</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -760,13 +758,9 @@
         <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.85</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -791,23 +785,21 @@
         <v>96746.04949999999</v>
       </c>
       <c r="G11" t="n">
-        <v>3.856666666666666</v>
+        <v>3.914999999999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -834,7 +826,7 @@
         <v>30201.2462</v>
       </c>
       <c r="G12" t="n">
-        <v>3.859999999999999</v>
+        <v>3.913666666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -844,11 +836,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -875,7 +867,7 @@
         <v>114252.5662</v>
       </c>
       <c r="G13" t="n">
-        <v>3.859999999999999</v>
+        <v>3.912333333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -884,14 +876,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -916,7 +902,7 @@
         <v>2072.0929</v>
       </c>
       <c r="G14" t="n">
-        <v>3.863333333333332</v>
+        <v>3.910999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -925,14 +911,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -957,7 +937,7 @@
         <v>1972313.1015</v>
       </c>
       <c r="G15" t="n">
-        <v>3.873333333333333</v>
+        <v>3.909999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -966,14 +946,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -998,7 +972,7 @@
         <v>19217.6148</v>
       </c>
       <c r="G16" t="n">
-        <v>3.879999999999999</v>
+        <v>3.908833333333332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1007,14 +981,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1039,7 +1007,7 @@
         <v>251.2886</v>
       </c>
       <c r="G17" t="n">
-        <v>3.883333333333332</v>
+        <v>3.907666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1048,14 +1016,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1080,7 +1042,7 @@
         <v>87641.0206</v>
       </c>
       <c r="G18" t="n">
-        <v>3.876666666666665</v>
+        <v>3.906333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1089,14 +1051,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1121,7 +1077,7 @@
         <v>246547.7356</v>
       </c>
       <c r="G19" t="n">
-        <v>3.869999999999999</v>
+        <v>3.905</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1130,14 +1086,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1162,7 +1112,7 @@
         <v>19217.6148</v>
       </c>
       <c r="G20" t="n">
-        <v>3.866666666666666</v>
+        <v>3.903833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1171,14 +1121,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1203,7 +1147,7 @@
         <v>34217.7342</v>
       </c>
       <c r="G21" t="n">
-        <v>3.866666666666666</v>
+        <v>3.902666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1212,14 +1156,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1244,7 +1182,7 @@
         <v>64690.9472</v>
       </c>
       <c r="G22" t="n">
-        <v>3.87</v>
+        <v>3.9015</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1253,14 +1191,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1285,25 +1217,17 @@
         <v>145574.4342</v>
       </c>
       <c r="G23" t="n">
-        <v>3.87</v>
+        <v>3.900833333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1328,25 +1252,17 @@
         <v>396.8831</v>
       </c>
       <c r="G24" t="n">
-        <v>3.863333333333333</v>
+        <v>3.899833333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1371,7 +1287,7 @@
         <v>2718.1234</v>
       </c>
       <c r="G25" t="n">
-        <v>3.856666666666667</v>
+        <v>3.899</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1380,14 +1296,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1322,7 @@
         <v>286981</v>
       </c>
       <c r="G26" t="n">
-        <v>3.85</v>
+        <v>3.898166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1421,14 +1331,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1453,7 +1357,7 @@
         <v>1257.5321</v>
       </c>
       <c r="G27" t="n">
-        <v>3.863333333333334</v>
+        <v>3.898333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1462,14 +1366,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1494,7 +1392,7 @@
         <v>1951.928</v>
       </c>
       <c r="G28" t="n">
-        <v>3.876666666666667</v>
+        <v>3.897999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1503,14 +1401,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1535,7 +1427,7 @@
         <v>1000</v>
       </c>
       <c r="G29" t="n">
-        <v>3.880000000000001</v>
+        <v>3.896833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1544,14 +1436,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1576,7 +1462,7 @@
         <v>421.7948</v>
       </c>
       <c r="G30" t="n">
-        <v>3.883333333333334</v>
+        <v>3.895833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1585,14 +1471,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1617,7 +1497,7 @@
         <v>17699.2307</v>
       </c>
       <c r="G31" t="n">
-        <v>3.886666666666667</v>
+        <v>3.895166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1626,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1658,7 +1532,7 @@
         <v>101</v>
       </c>
       <c r="G32" t="n">
-        <v>3.886666666666667</v>
+        <v>3.893833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1667,14 +1541,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1699,7 +1567,7 @@
         <v>10861.0147</v>
       </c>
       <c r="G33" t="n">
-        <v>3.873333333333334</v>
+        <v>3.8925</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1708,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1740,7 +1602,7 @@
         <v>37000</v>
       </c>
       <c r="G34" t="n">
-        <v>3.873333333333334</v>
+        <v>3.891833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1749,14 +1611,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1781,7 +1637,7 @@
         <v>5640</v>
       </c>
       <c r="G35" t="n">
-        <v>3.883333333333334</v>
+        <v>3.891</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1790,14 +1646,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1822,7 +1672,7 @@
         <v>132000</v>
       </c>
       <c r="G36" t="n">
-        <v>3.903333333333334</v>
+        <v>3.8905</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1831,14 +1681,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1863,7 +1707,7 @@
         <v>219000</v>
       </c>
       <c r="G37" t="n">
-        <v>3.916666666666667</v>
+        <v>3.890666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1872,14 +1716,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1904,7 +1742,7 @@
         <v>194000</v>
       </c>
       <c r="G38" t="n">
-        <v>3.936666666666667</v>
+        <v>3.890833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1913,14 +1751,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1945,7 +1777,7 @@
         <v>496972.2985</v>
       </c>
       <c r="G39" t="n">
-        <v>3.946666666666667</v>
+        <v>3.891</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1954,14 +1786,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1986,7 +1812,7 @@
         <v>77593.18180000001</v>
       </c>
       <c r="G40" t="n">
-        <v>3.953333333333334</v>
+        <v>3.891333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1995,14 +1821,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2027,7 +1847,7 @@
         <v>61980.8182</v>
       </c>
       <c r="G41" t="n">
-        <v>3.956666666666667</v>
+        <v>3.8915</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2036,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +1882,7 @@
         <v>99750</v>
       </c>
       <c r="G42" t="n">
-        <v>3.960000000000001</v>
+        <v>3.8925</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2077,14 +1891,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2109,7 +1917,7 @@
         <v>12.6288</v>
       </c>
       <c r="G43" t="n">
-        <v>3.963333333333335</v>
+        <v>3.893333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2118,14 +1926,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2150,7 +1952,7 @@
         <v>14214.5141</v>
       </c>
       <c r="G44" t="n">
-        <v>3.970000000000001</v>
+        <v>3.893833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2159,14 +1961,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2191,7 +1987,7 @@
         <v>13.125</v>
       </c>
       <c r="G45" t="n">
-        <v>3.983333333333334</v>
+        <v>3.895</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2200,14 +1996,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2232,7 +2022,7 @@
         <v>154268.4109</v>
       </c>
       <c r="G46" t="n">
-        <v>3.983333333333334</v>
+        <v>3.895666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2241,14 +2031,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2273,7 +2057,7 @@
         <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>3.986666666666668</v>
+        <v>3.896666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2282,14 +2066,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2314,7 +2092,7 @@
         <v>2507</v>
       </c>
       <c r="G48" t="n">
-        <v>3.983333333333334</v>
+        <v>3.897666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2323,14 +2101,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2355,7 +2127,7 @@
         <v>16358.5417</v>
       </c>
       <c r="G49" t="n">
-        <v>3.990000000000001</v>
+        <v>3.898666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2364,14 +2136,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2396,7 +2162,7 @@
         <v>107500</v>
       </c>
       <c r="G50" t="n">
-        <v>3.990000000000001</v>
+        <v>3.899833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2405,14 +2171,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2437,7 +2197,7 @@
         <v>248701.3342</v>
       </c>
       <c r="G51" t="n">
-        <v>3.993333333333334</v>
+        <v>3.901166666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2446,14 +2206,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2478,7 +2232,7 @@
         <v>89874.85030000001</v>
       </c>
       <c r="G52" t="n">
-        <v>3.996666666666667</v>
+        <v>3.902666666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2487,14 +2241,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2519,7 +2267,7 @@
         <v>7038.075</v>
       </c>
       <c r="G53" t="n">
-        <v>4.000000000000001</v>
+        <v>3.904166666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2528,14 +2276,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2560,7 +2302,7 @@
         <v>50855.826</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>3.905833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2569,14 +2311,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2601,7 +2337,7 @@
         <v>10000</v>
       </c>
       <c r="G55" t="n">
-        <v>4.010000000000001</v>
+        <v>3.908000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2610,14 +2346,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2642,7 +2372,7 @@
         <v>20000</v>
       </c>
       <c r="G56" t="n">
-        <v>4.023333333333333</v>
+        <v>3.910333333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2651,14 +2381,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2683,7 +2407,7 @@
         <v>458561.8791</v>
       </c>
       <c r="G57" t="n">
-        <v>4.036666666666666</v>
+        <v>3.912833333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2692,14 +2416,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2724,7 +2442,7 @@
         <v>5000</v>
       </c>
       <c r="G58" t="n">
-        <v>4.039999999999999</v>
+        <v>3.915333333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2733,14 +2451,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2477,7 @@
         <v>14.8514</v>
       </c>
       <c r="G59" t="n">
-        <v>4.039999999999999</v>
+        <v>3.917833333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2774,14 +2486,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2806,23 +2512,17 @@
         <v>10389.2289</v>
       </c>
       <c r="G60" t="n">
-        <v>4.033333333333332</v>
+        <v>3.920000000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2847,7 +2547,7 @@
         <v>115714.9999</v>
       </c>
       <c r="G61" t="n">
-        <v>4.016666666666666</v>
+        <v>3.921833333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2856,14 +2556,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2888,7 +2582,7 @@
         <v>17826</v>
       </c>
       <c r="G62" t="n">
-        <v>4.009999999999999</v>
+        <v>3.924166666666669</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2897,14 +2591,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2929,7 +2617,7 @@
         <v>508.4156</v>
       </c>
       <c r="G63" t="n">
-        <v>4.009999999999999</v>
+        <v>3.926666666666669</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2938,14 +2626,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2970,7 +2652,7 @@
         <v>254.9581</v>
       </c>
       <c r="G64" t="n">
-        <v>4.019999999999999</v>
+        <v>3.929166666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2979,14 +2661,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3011,7 +2687,7 @@
         <v>400</v>
       </c>
       <c r="G65" t="n">
-        <v>4.006666666666665</v>
+        <v>3.931166666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3020,14 +2696,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3052,7 +2722,7 @@
         <v>128000</v>
       </c>
       <c r="G66" t="n">
-        <v>4.009999999999999</v>
+        <v>3.933833333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3061,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3093,7 +2757,7 @@
         <v>73414.39205955336</v>
       </c>
       <c r="G67" t="n">
-        <v>4.013333333333333</v>
+        <v>3.936666666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3102,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3134,7 +2792,7 @@
         <v>61499.2645</v>
       </c>
       <c r="G68" t="n">
-        <v>4.033333333333332</v>
+        <v>3.939666666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3143,14 +2801,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3175,7 +2827,7 @@
         <v>110275.1817</v>
       </c>
       <c r="G69" t="n">
-        <v>4.036666666666665</v>
+        <v>3.942833333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3184,14 +2836,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3216,7 +2862,7 @@
         <v>80042.5254</v>
       </c>
       <c r="G70" t="n">
-        <v>4.043333333333332</v>
+        <v>3.946000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3225,14 +2871,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3257,7 +2897,7 @@
         <v>40176.6418</v>
       </c>
       <c r="G71" t="n">
-        <v>4.046666666666666</v>
+        <v>3.949166666666668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3266,14 +2906,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3298,7 +2932,7 @@
         <v>29111.9895</v>
       </c>
       <c r="G72" t="n">
-        <v>4.05</v>
+        <v>3.952333333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3307,14 +2941,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3339,7 +2967,7 @@
         <v>238565.214</v>
       </c>
       <c r="G73" t="n">
-        <v>4.043333333333333</v>
+        <v>3.955166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3348,14 +2976,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3380,7 +3002,7 @@
         <v>59720</v>
       </c>
       <c r="G74" t="n">
-        <v>4.05</v>
+        <v>3.9585</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3389,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3421,7 +3037,7 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>4.053333333333332</v>
+        <v>3.961333333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3430,14 +3046,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3462,7 +3072,7 @@
         <v>10819.9769</v>
       </c>
       <c r="G76" t="n">
-        <v>4.063333333333332</v>
+        <v>3.964333333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3471,14 +3081,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3107,7 @@
         <v>2000</v>
       </c>
       <c r="G77" t="n">
-        <v>4.059999999999998</v>
+        <v>3.967333333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3512,14 +3116,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3544,7 +3142,7 @@
         <v>759044.581</v>
       </c>
       <c r="G78" t="n">
-        <v>4.053333333333331</v>
+        <v>3.970166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3553,14 +3151,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3585,7 +3177,7 @@
         <v>431000</v>
       </c>
       <c r="G79" t="n">
-        <v>4.059999999999999</v>
+        <v>3.973833333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3594,14 +3186,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3626,7 +3212,7 @@
         <v>30929</v>
       </c>
       <c r="G80" t="n">
-        <v>4.069999999999999</v>
+        <v>3.9775</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3635,14 +3221,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3667,7 +3247,7 @@
         <v>199304.3127</v>
       </c>
       <c r="G81" t="n">
-        <v>4.096666666666667</v>
+        <v>3.981666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3676,14 +3256,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3708,7 +3282,7 @@
         <v>60000</v>
       </c>
       <c r="G82" t="n">
-        <v>4.13</v>
+        <v>3.986833333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3717,14 +3291,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3749,7 +3317,7 @@
         <v>245917.4641148325</v>
       </c>
       <c r="G83" t="n">
-        <v>4.16</v>
+        <v>3.992</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3758,14 +3326,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3790,25 +3352,19 @@
         <v>57824.94</v>
       </c>
       <c r="G84" t="n">
-        <v>4.176666666666666</v>
+        <v>3.997333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>1.072519379844961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3831,7 +3387,7 @@
         <v>9004.200000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>4.163333333333333</v>
+        <v>4.002166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3866,7 +3422,7 @@
         <v>9004</v>
       </c>
       <c r="G86" t="n">
-        <v>4.156666666666666</v>
+        <v>4.007333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3901,7 +3457,7 @@
         <v>65007.143</v>
       </c>
       <c r="G87" t="n">
-        <v>4.153333333333333</v>
+        <v>4.011833333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3936,7 +3492,7 @@
         <v>14777.2182</v>
       </c>
       <c r="G88" t="n">
-        <v>4.163333333333333</v>
+        <v>4.016500000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3971,7 +3527,7 @@
         <v>89838.2283</v>
       </c>
       <c r="G89" t="n">
-        <v>4.166666666666665</v>
+        <v>4.021666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4006,7 +3562,7 @@
         <v>419000</v>
       </c>
       <c r="G90" t="n">
-        <v>4.169999999999998</v>
+        <v>4.026166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4041,7 +3597,7 @@
         <v>306177.6705</v>
       </c>
       <c r="G91" t="n">
-        <v>4.169999999999997</v>
+        <v>4.030666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4076,7 +3632,7 @@
         <v>120000</v>
       </c>
       <c r="G92" t="n">
-        <v>4.17333333333333</v>
+        <v>4.036</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4111,7 +3667,7 @@
         <v>591852.0794851675</v>
       </c>
       <c r="G93" t="n">
-        <v>4.176666666666663</v>
+        <v>4.041333333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4146,7 +3702,7 @@
         <v>2000</v>
       </c>
       <c r="G94" t="n">
-        <v>4.179999999999995</v>
+        <v>4.045999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4181,7 +3737,7 @@
         <v>103009.6991148325</v>
       </c>
       <c r="G95" t="n">
-        <v>4.166666666666662</v>
+        <v>4.050166666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4216,7 +3772,7 @@
         <v>127207.9136</v>
       </c>
       <c r="G96" t="n">
-        <v>4.16333333333333</v>
+        <v>4.054333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4251,7 +3807,7 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>4.16333333333333</v>
+        <v>4.058333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4286,7 +3842,7 @@
         <v>9000</v>
       </c>
       <c r="G98" t="n">
-        <v>4.176666666666662</v>
+        <v>4.062166666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4321,7 +3877,7 @@
         <v>110000</v>
       </c>
       <c r="G99" t="n">
-        <v>4.179999999999995</v>
+        <v>4.066</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4356,7 +3912,7 @@
         <v>13549.0171</v>
       </c>
       <c r="G100" t="n">
-        <v>4.179999999999995</v>
+        <v>4.069666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4391,7 +3947,7 @@
         <v>200940.4349</v>
       </c>
       <c r="G101" t="n">
-        <v>4.179999999999995</v>
+        <v>4.073333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4426,7 +3982,7 @@
         <v>43166</v>
       </c>
       <c r="G102" t="n">
-        <v>4.183333333333329</v>
+        <v>4.077166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>

--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>15386.1947</v>
       </c>
       <c r="G2" t="n">
+        <v>3.902666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.917833333333331</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>27057.6954</v>
       </c>
       <c r="G3" t="n">
+        <v>3.898666666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.917999999999997</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>6334.5397</v>
       </c>
       <c r="G4" t="n">
+        <v>3.894666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.918166666666664</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>60704.3393</v>
       </c>
       <c r="G5" t="n">
+        <v>3.890666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.918166666666664</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,22 +605,21 @@
         <v>51935.4005</v>
       </c>
       <c r="G6" t="n">
+        <v>3.887333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.91833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -627,24 +643,21 @@
         <v>103319.2177</v>
       </c>
       <c r="G7" t="n">
+        <v>3.884</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.917833333333331</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -668,26 +681,21 @@
         <v>28828.1657</v>
       </c>
       <c r="G8" t="n">
+        <v>3.880666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.917999999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,18 +719,21 @@
         <v>66108.7041</v>
       </c>
       <c r="G9" t="n">
+        <v>3.877333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.916499999999998</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,22 +757,21 @@
         <v>3197.1153</v>
       </c>
       <c r="G10" t="n">
+        <v>3.874666666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.915833333333331</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -785,24 +795,25 @@
         <v>96746.04949999999</v>
       </c>
       <c r="G11" t="n">
+        <v>3.872000000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.914999999999998</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,24 +837,27 @@
         <v>30201.2462</v>
       </c>
       <c r="G12" t="n">
+        <v>3.870000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.913666666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,18 +881,27 @@
         <v>114252.5662</v>
       </c>
       <c r="G13" t="n">
+        <v>3.868000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.912333333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -902,18 +925,25 @@
         <v>2072.0929</v>
       </c>
       <c r="G14" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.910999999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -937,18 +967,29 @@
         <v>1972313.1015</v>
       </c>
       <c r="G15" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.909999999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -972,18 +1013,27 @@
         <v>19217.6148</v>
       </c>
       <c r="G16" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.908833333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1007,18 +1057,27 @@
         <v>251.2886</v>
       </c>
       <c r="G17" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.907666666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1042,18 +1101,27 @@
         <v>87641.0206</v>
       </c>
       <c r="G18" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.906333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1077,18 +1145,27 @@
         <v>246547.7356</v>
       </c>
       <c r="G19" t="n">
+        <v>3.866000000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.905</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1112,18 +1189,29 @@
         <v>19217.6148</v>
       </c>
       <c r="G20" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.903833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,18 +1235,27 @@
         <v>34217.7342</v>
       </c>
       <c r="G21" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.902666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,18 +1279,29 @@
         <v>64690.9472</v>
       </c>
       <c r="G22" t="n">
+        <v>3.867333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.9015</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1217,18 +1325,27 @@
         <v>145574.4342</v>
       </c>
       <c r="G23" t="n">
+        <v>3.868</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.900833333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,18 +1369,29 @@
         <v>396.8831</v>
       </c>
       <c r="G24" t="n">
+        <v>3.868</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.899833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1287,18 +1415,29 @@
         <v>2718.1234</v>
       </c>
       <c r="G25" t="n">
+        <v>3.867333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.899</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,18 +1461,29 @@
         <v>286981</v>
       </c>
       <c r="G26" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.898166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1357,18 +1507,29 @@
         <v>1257.5321</v>
       </c>
       <c r="G27" t="n">
+        <v>3.868666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.898333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1392,18 +1553,29 @@
         <v>1951.928</v>
       </c>
       <c r="G28" t="n">
+        <v>3.870666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.897999999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1427,18 +1599,29 @@
         <v>1000</v>
       </c>
       <c r="G29" t="n">
+        <v>3.870000000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.896833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,18 +1645,29 @@
         <v>421.7948</v>
       </c>
       <c r="G30" t="n">
+        <v>3.870666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.895833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1497,18 +1691,29 @@
         <v>17699.2307</v>
       </c>
       <c r="G31" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.895166666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1532,18 +1737,27 @@
         <v>101</v>
       </c>
       <c r="G32" t="n">
+        <v>3.870666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.893833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1567,18 +1781,27 @@
         <v>10861.0147</v>
       </c>
       <c r="G33" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.8925</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1602,18 +1825,27 @@
         <v>37000</v>
       </c>
       <c r="G34" t="n">
+        <v>3.872666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.891833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1637,18 +1869,27 @@
         <v>5640</v>
       </c>
       <c r="G35" t="n">
+        <v>3.874000000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.891</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,18 +1913,27 @@
         <v>132000</v>
       </c>
       <c r="G36" t="n">
+        <v>3.877333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.8905</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1707,18 +1957,29 @@
         <v>219000</v>
       </c>
       <c r="G37" t="n">
+        <v>3.882000000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.890666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,18 +2003,29 @@
         <v>194000</v>
       </c>
       <c r="G38" t="n">
+        <v>3.887333333333335</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.890833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1777,18 +2049,27 @@
         <v>496972.2985</v>
       </c>
       <c r="G39" t="n">
+        <v>3.894000000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.891</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1812,18 +2093,29 @@
         <v>77593.18180000001</v>
       </c>
       <c r="G40" t="n">
+        <v>3.901333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.891333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1847,18 +2139,27 @@
         <v>61980.8182</v>
       </c>
       <c r="G41" t="n">
+        <v>3.908666666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.8915</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,18 +2183,27 @@
         <v>99750</v>
       </c>
       <c r="G42" t="n">
+        <v>3.913333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.8925</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1917,18 +2227,27 @@
         <v>12.6288</v>
       </c>
       <c r="G43" t="n">
+        <v>3.918666666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.893333333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1952,18 +2271,27 @@
         <v>14214.5141</v>
       </c>
       <c r="G44" t="n">
+        <v>3.926666666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.893833333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1987,18 +2315,27 @@
         <v>13.125</v>
       </c>
       <c r="G45" t="n">
+        <v>3.933333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.895</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,18 +2359,27 @@
         <v>154268.4109</v>
       </c>
       <c r="G46" t="n">
+        <v>3.938000000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.895666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2057,18 +2403,27 @@
         <v>100</v>
       </c>
       <c r="G47" t="n">
+        <v>3.946666666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>3.896666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,18 +2447,27 @@
         <v>2507</v>
       </c>
       <c r="G48" t="n">
+        <v>3.955333333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.897666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2127,18 +2491,27 @@
         <v>16358.5417</v>
       </c>
       <c r="G49" t="n">
+        <v>3.961333333333335</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.898666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,18 +2535,27 @@
         <v>107500</v>
       </c>
       <c r="G50" t="n">
+        <v>3.968000000000002</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.899833333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2197,18 +2579,27 @@
         <v>248701.3342</v>
       </c>
       <c r="G51" t="n">
+        <v>3.973333333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.901166666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,18 +2623,27 @@
         <v>89874.85030000001</v>
       </c>
       <c r="G52" t="n">
+        <v>3.977333333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.902666666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2267,18 +2667,27 @@
         <v>7038.075</v>
       </c>
       <c r="G53" t="n">
+        <v>3.980666666666668</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.904166666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,18 +2711,27 @@
         <v>50855.826</v>
       </c>
       <c r="G54" t="n">
+        <v>3.984000000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.905833333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2337,18 +2755,27 @@
         <v>10000</v>
       </c>
       <c r="G55" t="n">
+        <v>3.988666666666668</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.908000000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,18 +2799,27 @@
         <v>20000</v>
       </c>
       <c r="G56" t="n">
+        <v>3.994000000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.910333333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2407,18 +2843,27 @@
         <v>458561.8791</v>
       </c>
       <c r="G57" t="n">
+        <v>3.999333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>3.912833333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,18 +2887,27 @@
         <v>5000</v>
       </c>
       <c r="G58" t="n">
+        <v>4.004000000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.915333333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,18 +2931,27 @@
         <v>14.8514</v>
       </c>
       <c r="G59" t="n">
+        <v>4.008000000000002</v>
+      </c>
+      <c r="H59" t="n">
         <v>3.917833333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,18 +2975,27 @@
         <v>10389.2289</v>
       </c>
       <c r="G60" t="n">
+        <v>4.009333333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.920000000000001</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2547,18 +3019,27 @@
         <v>115714.9999</v>
       </c>
       <c r="G61" t="n">
+        <v>4.010666666666668</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.921833333333335</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,18 +3063,27 @@
         <v>17826</v>
       </c>
       <c r="G62" t="n">
+        <v>4.012666666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.924166666666669</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,18 +3107,27 @@
         <v>508.4156</v>
       </c>
       <c r="G63" t="n">
+        <v>4.014666666666668</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.926666666666669</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,18 +3151,27 @@
         <v>254.9581</v>
       </c>
       <c r="G64" t="n">
+        <v>4.016666666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.929166666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,18 +3195,27 @@
         <v>400</v>
       </c>
       <c r="G65" t="n">
+        <v>4.016000000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.931166666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,18 +3239,27 @@
         <v>128000</v>
       </c>
       <c r="G66" t="n">
+        <v>4.018000000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.933833333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,18 +3283,27 @@
         <v>73414.39205955336</v>
       </c>
       <c r="G67" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.936666666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,18 +3327,27 @@
         <v>61499.2645</v>
       </c>
       <c r="G68" t="n">
+        <v>4.022666666666668</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.939666666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,18 +3371,27 @@
         <v>110275.1817</v>
       </c>
       <c r="G69" t="n">
+        <v>4.025333333333335</v>
+      </c>
+      <c r="H69" t="n">
         <v>3.942833333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,18 +3415,27 @@
         <v>80042.5254</v>
       </c>
       <c r="G70" t="n">
+        <v>4.026666666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.946000000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,18 +3459,27 @@
         <v>40176.6418</v>
       </c>
       <c r="G71" t="n">
+        <v>4.027333333333335</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.949166666666668</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,18 +3503,27 @@
         <v>29111.9895</v>
       </c>
       <c r="G72" t="n">
+        <v>4.028000000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.952333333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,18 +3547,27 @@
         <v>238565.214</v>
       </c>
       <c r="G73" t="n">
+        <v>4.027333333333335</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.955166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,18 +3591,27 @@
         <v>59720</v>
       </c>
       <c r="G74" t="n">
+        <v>4.029333333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.9585</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,18 +3635,27 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
+        <v>4.032000000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>3.961333333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,18 +3679,27 @@
         <v>10819.9769</v>
       </c>
       <c r="G76" t="n">
+        <v>4.036666666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.964333333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,18 +3723,27 @@
         <v>2000</v>
       </c>
       <c r="G77" t="n">
+        <v>4.039333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>3.967333333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,18 +3767,27 @@
         <v>759044.581</v>
       </c>
       <c r="G78" t="n">
+        <v>4.040666666666668</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.970166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +3811,27 @@
         <v>431000</v>
       </c>
       <c r="G79" t="n">
+        <v>4.044666666666669</v>
+      </c>
+      <c r="H79" t="n">
         <v>3.973833333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,18 +3855,27 @@
         <v>30929</v>
       </c>
       <c r="G80" t="n">
+        <v>4.052000000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.9775</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +3899,27 @@
         <v>199304.3127</v>
       </c>
       <c r="G81" t="n">
+        <v>4.058000000000002</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.981666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,18 +3943,27 @@
         <v>60000</v>
       </c>
       <c r="G82" t="n">
+        <v>4.068000000000002</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.986833333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +3987,27 @@
         <v>245917.4641148325</v>
       </c>
       <c r="G83" t="n">
+        <v>4.077333333333336</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.992</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +4031,27 @@
         <v>57824.94</v>
       </c>
       <c r="G84" t="n">
+        <v>4.086000000000003</v>
+      </c>
+      <c r="H84" t="n">
         <v>3.997333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +4075,27 @@
         <v>9004.200000000001</v>
       </c>
       <c r="G85" t="n">
+        <v>4.092000000000002</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.002166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +4119,27 @@
         <v>9004</v>
       </c>
       <c r="G86" t="n">
+        <v>4.099333333333336</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.007333333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +4163,27 @@
         <v>65007.143</v>
       </c>
       <c r="G87" t="n">
+        <v>4.106666666666669</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.011833333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,18 +4207,27 @@
         <v>14777.2182</v>
       </c>
       <c r="G88" t="n">
+        <v>4.116000000000002</v>
+      </c>
+      <c r="H88" t="n">
         <v>4.016500000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,18 +4251,27 @@
         <v>89838.2283</v>
       </c>
       <c r="G89" t="n">
+        <v>4.122666666666669</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.021666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,18 +4295,27 @@
         <v>419000</v>
       </c>
       <c r="G90" t="n">
+        <v>4.130000000000002</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.026166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +4339,27 @@
         <v>306177.6705</v>
       </c>
       <c r="G91" t="n">
+        <v>4.137333333333335</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.030666666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,18 +4383,27 @@
         <v>120000</v>
       </c>
       <c r="G92" t="n">
+        <v>4.145333333333336</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.036</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,18 +4427,27 @@
         <v>591852.0794851675</v>
       </c>
       <c r="G93" t="n">
+        <v>4.154666666666669</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.041333333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +4471,27 @@
         <v>2000</v>
       </c>
       <c r="G94" t="n">
+        <v>4.161333333333336</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.045999999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,19 +4515,28 @@
         <v>103009.6991148325</v>
       </c>
       <c r="G95" t="n">
+        <v>4.16466666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.050166666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
+      <c r="L95" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>1.067538860103627</v>
       </c>
     </row>
     <row r="96">
@@ -3772,18 +4559,21 @@
         <v>127207.9136</v>
       </c>
       <c r="G96" t="n">
+        <v>4.168000000000003</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.054333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4597,21 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
+        <v>4.168000000000003</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.058333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4635,21 @@
         <v>9000</v>
       </c>
       <c r="G98" t="n">
+        <v>4.168000000000003</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.062166666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4673,21 @@
         <v>110000</v>
       </c>
       <c r="G99" t="n">
+        <v>4.168666666666669</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.066</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4711,21 @@
         <v>13549.0171</v>
       </c>
       <c r="G100" t="n">
+        <v>4.171333333333336</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.069666666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4749,21 @@
         <v>200940.4349</v>
       </c>
       <c r="G101" t="n">
+        <v>4.172666666666669</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.073333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4787,401 @@
         <v>43166</v>
       </c>
       <c r="G102" t="n">
+        <v>4.174666666666669</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.077166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F103" t="n">
+        <v>361000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4.176000000000002</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4.080833333333334</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F104" t="n">
+        <v>410000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4.177333333333335</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4.084333333333333</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F105" t="n">
+        <v>49975.4439</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4.178666666666668</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4.0875</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F106" t="n">
+        <v>411000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4.180000000000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4.091166666666667</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1039429</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4.180666666666668</v>
+      </c>
+      <c r="H107" t="n">
+        <v>4.0945</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F108" t="n">
+        <v>229800</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4.181333333333335</v>
+      </c>
+      <c r="H108" t="n">
+        <v>4.097833333333333</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F109" t="n">
+        <v>83161.8027</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4.182666666666668</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4.101333333333333</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F110" t="n">
+        <v>16778.5279</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4.186000000000002</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4.104666666666666</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.188000000000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.107999999999999</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>80022</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.189333333333335</v>
+      </c>
+      <c r="H112" t="n">
+        <v>4.111333333333332</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="C2" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="D2" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="E2" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="F2" t="n">
-        <v>15386.1947</v>
+        <v>20928.9311</v>
       </c>
       <c r="G2" t="n">
-        <v>3.902666666666668</v>
+        <v>174021.1288999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3.917833333333331</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="C3" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="D3" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="E3" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="F3" t="n">
-        <v>27057.6954</v>
+        <v>8592.269899999999</v>
       </c>
       <c r="G3" t="n">
-        <v>3.898666666666668</v>
+        <v>174021.1288999999</v>
       </c>
       <c r="H3" t="n">
-        <v>3.917999999999997</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="C4" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="D4" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="E4" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="F4" t="n">
-        <v>6334.5397</v>
+        <v>40317.8979</v>
       </c>
       <c r="G4" t="n">
-        <v>3.894666666666667</v>
+        <v>174021.1288999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.918166666666664</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C5" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="D5" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E5" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="F5" t="n">
-        <v>60704.3393</v>
+        <v>33216.9113</v>
       </c>
       <c r="G5" t="n">
-        <v>3.890666666666667</v>
+        <v>207238.0401999999</v>
       </c>
       <c r="H5" t="n">
-        <v>3.918166666666664</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="C6" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="D6" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="E6" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="F6" t="n">
-        <v>51935.4005</v>
+        <v>28110.3795</v>
       </c>
       <c r="G6" t="n">
-        <v>3.887333333333333</v>
+        <v>179127.6606999999</v>
       </c>
       <c r="H6" t="n">
-        <v>3.91833333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="C7" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="D7" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="E7" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="F7" t="n">
-        <v>103319.2177</v>
+        <v>17775.8495</v>
       </c>
       <c r="G7" t="n">
-        <v>3.884</v>
+        <v>196903.5101999999</v>
       </c>
       <c r="H7" t="n">
-        <v>3.917833333333331</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="C8" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="D8" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="E8" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="F8" t="n">
-        <v>28828.1657</v>
+        <v>103810.9595</v>
       </c>
       <c r="G8" t="n">
-        <v>3.880666666666667</v>
+        <v>196903.5101999999</v>
       </c>
       <c r="H8" t="n">
-        <v>3.917999999999998</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="C9" t="n">
-        <v>3.85</v>
+        <v>3.94</v>
       </c>
       <c r="D9" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="E9" t="n">
-        <v>3.85</v>
+        <v>3.94</v>
       </c>
       <c r="F9" t="n">
-        <v>66108.7041</v>
+        <v>36516.1025</v>
       </c>
       <c r="G9" t="n">
-        <v>3.877333333333334</v>
+        <v>196903.5101999999</v>
       </c>
       <c r="H9" t="n">
-        <v>3.916499999999998</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C10" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="D10" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E10" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="F10" t="n">
-        <v>3197.1153</v>
+        <v>14373.1988</v>
       </c>
       <c r="G10" t="n">
-        <v>3.874666666666668</v>
+        <v>211276.7089999999</v>
       </c>
       <c r="H10" t="n">
-        <v>3.915833333333331</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C11" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="D11" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E11" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="F11" t="n">
-        <v>96746.04949999999</v>
+        <v>2101032.5946</v>
       </c>
       <c r="G11" t="n">
-        <v>3.872000000000001</v>
+        <v>-1889755.8856</v>
       </c>
       <c r="H11" t="n">
-        <v>3.914999999999998</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -822,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C12" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="D12" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E12" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="F12" t="n">
-        <v>30201.2462</v>
+        <v>186803.1381</v>
       </c>
       <c r="G12" t="n">
-        <v>3.870000000000001</v>
+        <v>-1702952.7475</v>
       </c>
       <c r="H12" t="n">
-        <v>3.913666666666665</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C13" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="D13" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E13" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="F13" t="n">
-        <v>114252.5662</v>
+        <v>493</v>
       </c>
       <c r="G13" t="n">
-        <v>3.868000000000001</v>
+        <v>-1702459.7475</v>
       </c>
       <c r="H13" t="n">
-        <v>3.912333333333332</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
       <c r="C14" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="D14" t="n">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
       <c r="E14" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="F14" t="n">
-        <v>2072.0929</v>
+        <v>800</v>
       </c>
       <c r="G14" t="n">
-        <v>3.866666666666667</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H14" t="n">
-        <v>3.910999999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -952,44 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.86</v>
+        <v>3.93</v>
       </c>
       <c r="C15" t="n">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
       <c r="D15" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="E15" t="n">
-        <v>3.84</v>
+        <v>3.93</v>
       </c>
       <c r="F15" t="n">
-        <v>1972313.1015</v>
+        <v>13690.5513</v>
       </c>
       <c r="G15" t="n">
-        <v>3.866666666666667</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H15" t="n">
-        <v>3.909999999999999</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -998,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="C16" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="D16" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="E16" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="F16" t="n">
-        <v>19217.6148</v>
+        <v>78000</v>
       </c>
       <c r="G16" t="n">
-        <v>3.866666666666667</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H16" t="n">
-        <v>3.908833333333332</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1042,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="C17" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="D17" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="E17" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="F17" t="n">
-        <v>251.2886</v>
+        <v>106000</v>
       </c>
       <c r="G17" t="n">
-        <v>3.866666666666667</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H17" t="n">
-        <v>3.907666666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1086,42 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="C18" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="D18" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="E18" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="F18" t="n">
-        <v>87641.0206</v>
+        <v>666</v>
       </c>
       <c r="G18" t="n">
-        <v>3.866666666666667</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H18" t="n">
-        <v>3.906333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1130,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="C19" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="D19" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="E19" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="F19" t="n">
-        <v>246547.7356</v>
+        <v>29877.2681</v>
       </c>
       <c r="G19" t="n">
-        <v>3.866000000000001</v>
+        <v>-1733137.0156</v>
       </c>
       <c r="H19" t="n">
-        <v>3.905</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1174,44 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="C20" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="D20" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="E20" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="F20" t="n">
-        <v>19217.6148</v>
+        <v>666</v>
       </c>
       <c r="G20" t="n">
-        <v>3.866666666666667</v>
+        <v>-1733137.0156</v>
       </c>
       <c r="H20" t="n">
-        <v>3.903833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="C21" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="D21" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="E21" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="F21" t="n">
-        <v>34217.7342</v>
+        <v>2061.5662</v>
       </c>
       <c r="G21" t="n">
-        <v>3.866666666666667</v>
+        <v>-1735198.5818</v>
       </c>
       <c r="H21" t="n">
-        <v>3.902666666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1264,44 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="C22" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="D22" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="E22" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="F22" t="n">
-        <v>64690.9472</v>
+        <v>666</v>
       </c>
       <c r="G22" t="n">
-        <v>3.867333333333334</v>
+        <v>-1735198.5818</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9015</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="C23" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="E23" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="F23" t="n">
-        <v>145574.4342</v>
+        <v>37.9204</v>
       </c>
       <c r="G23" t="n">
-        <v>3.868</v>
+        <v>-1735236.5022</v>
       </c>
       <c r="H23" t="n">
-        <v>3.900833333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1354,44 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="C24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="E24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="F24" t="n">
-        <v>396.8831</v>
+        <v>464.4818</v>
       </c>
       <c r="G24" t="n">
-        <v>3.868</v>
+        <v>-1735236.5022</v>
       </c>
       <c r="H24" t="n">
-        <v>3.899833333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1400,44 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="C25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="E25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="F25" t="n">
-        <v>2718.1234</v>
+        <v>2740.6464</v>
       </c>
       <c r="G25" t="n">
-        <v>3.867333333333334</v>
+        <v>-1735236.5022</v>
       </c>
       <c r="H25" t="n">
-        <v>3.899</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,44 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="C26" t="n">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
       <c r="D26" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="E26" t="n">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
       <c r="F26" t="n">
-        <v>286981</v>
+        <v>11679.5886</v>
       </c>
       <c r="G26" t="n">
-        <v>3.866666666666667</v>
+        <v>-1746916.0908</v>
       </c>
       <c r="H26" t="n">
-        <v>3.898166666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1504,32 +1320,25 @@
         <v>3.89</v>
       </c>
       <c r="F27" t="n">
-        <v>1257.5321</v>
+        <v>2724.9357</v>
       </c>
       <c r="G27" t="n">
-        <v>3.868666666666667</v>
+        <v>-1746916.0908</v>
       </c>
       <c r="H27" t="n">
-        <v>3.898333333333333</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1550,32 +1359,27 @@
         <v>3.89</v>
       </c>
       <c r="F28" t="n">
-        <v>1951.928</v>
+        <v>14020</v>
       </c>
       <c r="G28" t="n">
-        <v>3.870666666666667</v>
+        <v>-1746916.0908</v>
       </c>
       <c r="H28" t="n">
-        <v>3.897999999999999</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>3.89</v>
       </c>
-      <c r="L28" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,44 +1388,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="C29" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="D29" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="E29" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="F29" t="n">
-        <v>1000</v>
+        <v>43395.9897</v>
       </c>
       <c r="G29" t="n">
-        <v>3.870000000000001</v>
+        <v>-1746916.0908</v>
       </c>
       <c r="H29" t="n">
-        <v>3.896833333333333</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="K29" t="n">
         <v>3.89</v>
       </c>
-      <c r="L29" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,44 +1431,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="C30" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="D30" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="E30" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="F30" t="n">
-        <v>421.7948</v>
+        <v>15048.3671</v>
       </c>
       <c r="G30" t="n">
-        <v>3.870666666666667</v>
+        <v>-1761964.4579</v>
       </c>
       <c r="H30" t="n">
-        <v>3.895833333333333</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="K30" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,44 +1470,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="C31" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="D31" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="E31" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="F31" t="n">
-        <v>17699.2307</v>
+        <v>15386.1947</v>
       </c>
       <c r="G31" t="n">
-        <v>3.872</v>
+        <v>-1761964.4579</v>
       </c>
       <c r="H31" t="n">
-        <v>3.895166666666666</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1722,42 +1513,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="C32" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="D32" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="E32" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="F32" t="n">
-        <v>101</v>
+        <v>27057.6954</v>
       </c>
       <c r="G32" t="n">
-        <v>3.870666666666667</v>
+        <v>-1789022.1533</v>
       </c>
       <c r="H32" t="n">
-        <v>3.893833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,42 +1554,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="C33" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="D33" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="E33" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="F33" t="n">
-        <v>10861.0147</v>
+        <v>6334.5397</v>
       </c>
       <c r="G33" t="n">
-        <v>3.87</v>
+        <v>-1789022.1533</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8925</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1810,42 +1589,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="C34" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="D34" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="E34" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="F34" t="n">
-        <v>37000</v>
+        <v>60704.3393</v>
       </c>
       <c r="G34" t="n">
-        <v>3.872666666666667</v>
+        <v>-1849726.4926</v>
       </c>
       <c r="H34" t="n">
-        <v>3.891833333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1854,42 +1624,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="C35" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="D35" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="E35" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="F35" t="n">
-        <v>5640</v>
+        <v>51935.4005</v>
       </c>
       <c r="G35" t="n">
-        <v>3.874000000000001</v>
+        <v>-1797791.0921</v>
       </c>
       <c r="H35" t="n">
-        <v>3.891</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,42 +1659,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="C36" t="n">
-        <v>3.92</v>
+        <v>3.86</v>
       </c>
       <c r="D36" t="n">
-        <v>3.92</v>
+        <v>3.86</v>
       </c>
       <c r="E36" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="F36" t="n">
-        <v>132000</v>
+        <v>103319.2177</v>
       </c>
       <c r="G36" t="n">
-        <v>3.877333333333334</v>
+        <v>-1901110.3098</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8905</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,44 +1694,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.93</v>
+        <v>3.86</v>
       </c>
       <c r="C37" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="D37" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="E37" t="n">
-        <v>3.93</v>
+        <v>3.86</v>
       </c>
       <c r="F37" t="n">
-        <v>219000</v>
+        <v>28828.1657</v>
       </c>
       <c r="G37" t="n">
-        <v>3.882000000000001</v>
+        <v>-1901110.3098</v>
       </c>
       <c r="H37" t="n">
-        <v>3.890666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,44 +1729,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="C38" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="D38" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="E38" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="F38" t="n">
-        <v>194000</v>
+        <v>66108.7041</v>
       </c>
       <c r="G38" t="n">
-        <v>3.887333333333335</v>
+        <v>-1967219.0139</v>
       </c>
       <c r="H38" t="n">
-        <v>3.890833333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,42 +1764,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="C39" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="D39" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="E39" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="F39" t="n">
-        <v>496972.2985</v>
+        <v>3197.1153</v>
       </c>
       <c r="G39" t="n">
-        <v>3.894000000000001</v>
+        <v>-1964021.8986</v>
       </c>
       <c r="H39" t="n">
-        <v>3.891</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,44 +1803,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="C40" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="D40" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="E40" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="F40" t="n">
-        <v>77593.18180000001</v>
+        <v>96746.04949999999</v>
       </c>
       <c r="G40" t="n">
-        <v>3.901333333333334</v>
+        <v>-1964021.8986</v>
       </c>
       <c r="H40" t="n">
-        <v>3.891333333333333</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="K40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,42 +1846,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="C41" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="D41" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="E41" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="F41" t="n">
-        <v>61980.8182</v>
+        <v>30201.2462</v>
       </c>
       <c r="G41" t="n">
-        <v>3.908666666666668</v>
+        <v>-1964021.8986</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8915</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2168,42 +1889,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="C42" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="D42" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="E42" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="F42" t="n">
-        <v>99750</v>
+        <v>114252.5662</v>
       </c>
       <c r="G42" t="n">
-        <v>3.913333333333334</v>
+        <v>-1964021.8986</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8925</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,42 +1928,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="C43" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="D43" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="E43" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="F43" t="n">
-        <v>12.6288</v>
+        <v>2072.0929</v>
       </c>
       <c r="G43" t="n">
-        <v>3.918666666666668</v>
+        <v>-1961949.8057</v>
       </c>
       <c r="H43" t="n">
-        <v>3.893333333333334</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,42 +1969,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.98</v>
+        <v>3.86</v>
       </c>
       <c r="C44" t="n">
-        <v>3.98</v>
+        <v>3.89</v>
       </c>
       <c r="D44" t="n">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="E44" t="n">
-        <v>3.98</v>
+        <v>3.84</v>
       </c>
       <c r="F44" t="n">
-        <v>14214.5141</v>
+        <v>1972313.1015</v>
       </c>
       <c r="G44" t="n">
-        <v>3.926666666666668</v>
+        <v>10363.2958000002</v>
       </c>
       <c r="H44" t="n">
-        <v>3.893833333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,42 +2010,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="F45" t="n">
-        <v>13.125</v>
+        <v>19217.6148</v>
       </c>
       <c r="G45" t="n">
-        <v>3.933333333333334</v>
+        <v>-8854.318999999803</v>
       </c>
       <c r="H45" t="n">
-        <v>3.895</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,42 +2051,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="C46" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="D46" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="E46" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="F46" t="n">
-        <v>154268.4109</v>
+        <v>251.2886</v>
       </c>
       <c r="G46" t="n">
-        <v>3.938000000000001</v>
+        <v>-8854.318999999803</v>
       </c>
       <c r="H46" t="n">
-        <v>3.895666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,42 +2092,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="C47" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="D47" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E47" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>87641.0206</v>
       </c>
       <c r="G47" t="n">
-        <v>3.946666666666668</v>
+        <v>-96495.3395999998</v>
       </c>
       <c r="H47" t="n">
-        <v>3.896666666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2432,42 +2133,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="C48" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="D48" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E48" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="F48" t="n">
-        <v>2507</v>
+        <v>246547.7356</v>
       </c>
       <c r="G48" t="n">
-        <v>3.955333333333335</v>
+        <v>-343043.0751999998</v>
       </c>
       <c r="H48" t="n">
-        <v>3.897666666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2476,42 +2174,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="C49" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="D49" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E49" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="F49" t="n">
-        <v>16358.5417</v>
+        <v>19217.6148</v>
       </c>
       <c r="G49" t="n">
-        <v>3.961333333333335</v>
+        <v>-323825.4603999999</v>
       </c>
       <c r="H49" t="n">
-        <v>3.898666666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2520,42 +2215,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="C50" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="D50" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E50" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="F50" t="n">
-        <v>107500</v>
+        <v>34217.7342</v>
       </c>
       <c r="G50" t="n">
-        <v>3.968000000000002</v>
+        <v>-323825.4603999999</v>
       </c>
       <c r="H50" t="n">
-        <v>3.899833333333334</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,42 +2256,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.96</v>
+        <v>3.87</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="E51" t="n">
-        <v>3.96</v>
+        <v>3.87</v>
       </c>
       <c r="F51" t="n">
-        <v>248701.3342</v>
+        <v>64690.9472</v>
       </c>
       <c r="G51" t="n">
-        <v>3.973333333333335</v>
+        <v>-323825.4603999999</v>
       </c>
       <c r="H51" t="n">
-        <v>3.901166666666668</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2608,42 +2297,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="F52" t="n">
-        <v>89874.85030000001</v>
+        <v>145574.4342</v>
       </c>
       <c r="G52" t="n">
-        <v>3.977333333333335</v>
+        <v>-323825.4603999999</v>
       </c>
       <c r="H52" t="n">
-        <v>3.902666666666668</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,42 +2338,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="F53" t="n">
-        <v>7038.075</v>
+        <v>396.8831</v>
       </c>
       <c r="G53" t="n">
-        <v>3.980666666666668</v>
+        <v>-324222.3434999998</v>
       </c>
       <c r="H53" t="n">
-        <v>3.904166666666668</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,42 +2379,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="F54" t="n">
-        <v>50855.826</v>
+        <v>2718.1234</v>
       </c>
       <c r="G54" t="n">
-        <v>3.984000000000001</v>
+        <v>-324222.3434999998</v>
       </c>
       <c r="H54" t="n">
-        <v>3.905833333333334</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,42 +2420,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="C55" t="n">
-        <v>4.03</v>
+        <v>3.85</v>
       </c>
       <c r="D55" t="n">
-        <v>4.03</v>
+        <v>3.86</v>
       </c>
       <c r="E55" t="n">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>286981</v>
       </c>
       <c r="G55" t="n">
-        <v>3.988666666666668</v>
+        <v>-324222.3434999998</v>
       </c>
       <c r="H55" t="n">
-        <v>3.908000000000001</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2784,42 +2461,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.03</v>
+        <v>3.89</v>
       </c>
       <c r="C56" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="D56" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="E56" t="n">
-        <v>4.03</v>
+        <v>3.89</v>
       </c>
       <c r="F56" t="n">
-        <v>20000</v>
+        <v>1257.5321</v>
       </c>
       <c r="G56" t="n">
-        <v>3.994000000000001</v>
+        <v>-322964.8113999998</v>
       </c>
       <c r="H56" t="n">
-        <v>3.910333333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,42 +2502,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="C57" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="D57" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="E57" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="F57" t="n">
-        <v>458561.8791</v>
+        <v>1951.928</v>
       </c>
       <c r="G57" t="n">
-        <v>3.999333333333334</v>
+        <v>-322964.8113999998</v>
       </c>
       <c r="H57" t="n">
-        <v>3.912833333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,42 +2543,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
       </c>
       <c r="C58" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
       </c>
       <c r="D58" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
       </c>
       <c r="E58" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>4.004000000000001</v>
+        <v>-323964.8113999998</v>
       </c>
       <c r="H58" t="n">
-        <v>3.915333333333334</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,42 +2584,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="C59" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="D59" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="E59" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="F59" t="n">
-        <v>14.8514</v>
+        <v>421.7948</v>
       </c>
       <c r="G59" t="n">
-        <v>4.008000000000002</v>
+        <v>-323543.0165999999</v>
       </c>
       <c r="H59" t="n">
-        <v>3.917833333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2960,42 +2625,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="C60" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="D60" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="E60" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="F60" t="n">
-        <v>10389.2289</v>
+        <v>17699.2307</v>
       </c>
       <c r="G60" t="n">
-        <v>4.009333333333335</v>
+        <v>-323543.0165999999</v>
       </c>
       <c r="H60" t="n">
-        <v>3.920000000000001</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,42 +2666,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="C61" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="D61" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="E61" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="F61" t="n">
-        <v>115714.9999</v>
+        <v>101</v>
       </c>
       <c r="G61" t="n">
-        <v>4.010666666666668</v>
+        <v>-323644.0165999999</v>
       </c>
       <c r="H61" t="n">
-        <v>3.921833333333335</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,42 +2707,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="C62" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="D62" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="E62" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="F62" t="n">
-        <v>17826</v>
+        <v>10861.0147</v>
       </c>
       <c r="G62" t="n">
-        <v>4.012666666666668</v>
+        <v>-323644.0165999999</v>
       </c>
       <c r="H62" t="n">
-        <v>3.924166666666669</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,42 +2748,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="C63" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="D63" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="E63" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="F63" t="n">
-        <v>508.4156</v>
+        <v>37000</v>
       </c>
       <c r="G63" t="n">
-        <v>4.014666666666668</v>
+        <v>-286644.0165999999</v>
       </c>
       <c r="H63" t="n">
-        <v>3.926666666666669</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,42 +2789,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.02</v>
+        <v>3.89</v>
       </c>
       <c r="C64" t="n">
-        <v>4.02</v>
+        <v>3.89</v>
       </c>
       <c r="D64" t="n">
-        <v>4.02</v>
+        <v>3.89</v>
       </c>
       <c r="E64" t="n">
-        <v>4.02</v>
+        <v>3.89</v>
       </c>
       <c r="F64" t="n">
-        <v>254.9581</v>
+        <v>5640</v>
       </c>
       <c r="G64" t="n">
-        <v>4.016666666666668</v>
+        <v>-292284.0165999999</v>
       </c>
       <c r="H64" t="n">
-        <v>3.929166666666668</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,42 +2830,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="C65" t="n">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="D65" t="n">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="E65" t="n">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="F65" t="n">
-        <v>400</v>
+        <v>132000</v>
       </c>
       <c r="G65" t="n">
-        <v>4.016000000000001</v>
+        <v>-160284.0165999999</v>
       </c>
       <c r="H65" t="n">
-        <v>3.931166666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,42 +2871,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.03</v>
+        <v>3.93</v>
       </c>
       <c r="C66" t="n">
-        <v>4.03</v>
+        <v>3.94</v>
       </c>
       <c r="D66" t="n">
-        <v>4.03</v>
+        <v>3.94</v>
       </c>
       <c r="E66" t="n">
-        <v>4.03</v>
+        <v>3.93</v>
       </c>
       <c r="F66" t="n">
-        <v>128000</v>
+        <v>219000</v>
       </c>
       <c r="G66" t="n">
-        <v>4.018000000000001</v>
+        <v>58715.98340000014</v>
       </c>
       <c r="H66" t="n">
-        <v>3.933833333333335</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,42 +2912,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.02</v>
+        <v>3.94</v>
       </c>
       <c r="C67" t="n">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="D67" t="n">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="E67" t="n">
-        <v>4.02</v>
+        <v>3.94</v>
       </c>
       <c r="F67" t="n">
-        <v>73414.39205955336</v>
+        <v>194000</v>
       </c>
       <c r="G67" t="n">
-        <v>4.02</v>
+        <v>252715.9834000001</v>
       </c>
       <c r="H67" t="n">
-        <v>3.936666666666668</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3312,42 +2953,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="C68" t="n">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="D68" t="n">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="E68" t="n">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="F68" t="n">
-        <v>61499.2645</v>
+        <v>496972.2985</v>
       </c>
       <c r="G68" t="n">
-        <v>4.022666666666668</v>
+        <v>252715.9834000001</v>
       </c>
       <c r="H68" t="n">
-        <v>3.939666666666668</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3356,42 +2994,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="C69" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="D69" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="E69" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="F69" t="n">
-        <v>110275.1817</v>
+        <v>77593.18180000001</v>
       </c>
       <c r="G69" t="n">
-        <v>4.025333333333335</v>
+        <v>330309.1652000002</v>
       </c>
       <c r="H69" t="n">
-        <v>3.942833333333334</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,42 +3035,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="C70" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="D70" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="E70" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="F70" t="n">
-        <v>80042.5254</v>
+        <v>61980.8182</v>
       </c>
       <c r="G70" t="n">
-        <v>4.026666666666668</v>
+        <v>330309.1652000002</v>
       </c>
       <c r="H70" t="n">
-        <v>3.946000000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3444,42 +3076,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="C71" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="D71" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="E71" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="F71" t="n">
-        <v>40176.6418</v>
+        <v>99750</v>
       </c>
       <c r="G71" t="n">
-        <v>4.027333333333335</v>
+        <v>330309.1652000002</v>
       </c>
       <c r="H71" t="n">
-        <v>3.949166666666668</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,42 +3117,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="C72" t="n">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="D72" t="n">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="E72" t="n">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="F72" t="n">
-        <v>29111.9895</v>
+        <v>12.6288</v>
       </c>
       <c r="G72" t="n">
-        <v>4.028000000000001</v>
+        <v>330321.7940000002</v>
       </c>
       <c r="H72" t="n">
-        <v>3.952333333333334</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,42 +3158,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C73" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="D73" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="E73" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="F73" t="n">
-        <v>238565.214</v>
+        <v>14214.5141</v>
       </c>
       <c r="G73" t="n">
-        <v>4.027333333333335</v>
+        <v>344536.3081000001</v>
       </c>
       <c r="H73" t="n">
-        <v>3.955166666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,42 +3199,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>4.07</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>4.07</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>59720</v>
+        <v>13.125</v>
       </c>
       <c r="G74" t="n">
-        <v>4.029333333333335</v>
+        <v>344549.4331000001</v>
       </c>
       <c r="H74" t="n">
-        <v>3.9585</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,42 +3240,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="C75" t="n">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="D75" t="n">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="E75" t="n">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>154268.4109</v>
       </c>
       <c r="G75" t="n">
-        <v>4.032000000000001</v>
+        <v>190281.0222000002</v>
       </c>
       <c r="H75" t="n">
-        <v>3.961333333333334</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3664,42 +3281,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="C76" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="D76" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="E76" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="F76" t="n">
-        <v>10819.9769</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>4.036666666666668</v>
+        <v>190381.0222000002</v>
       </c>
       <c r="H76" t="n">
-        <v>3.964333333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,42 +3322,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="C77" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="D77" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="E77" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="F77" t="n">
-        <v>2000</v>
+        <v>2507</v>
       </c>
       <c r="G77" t="n">
-        <v>4.039333333333334</v>
+        <v>190381.0222000002</v>
       </c>
       <c r="H77" t="n">
-        <v>3.967333333333334</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,42 +3363,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="C78" t="n">
-        <v>4.04</v>
+        <v>3.99</v>
       </c>
       <c r="D78" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="E78" t="n">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="F78" t="n">
-        <v>759044.581</v>
+        <v>16358.5417</v>
       </c>
       <c r="G78" t="n">
-        <v>4.040666666666668</v>
+        <v>190381.0222000002</v>
       </c>
       <c r="H78" t="n">
-        <v>3.970166666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,42 +3404,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="C79" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="D79" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="E79" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="F79" t="n">
-        <v>431000</v>
+        <v>107500</v>
       </c>
       <c r="G79" t="n">
-        <v>4.044666666666669</v>
+        <v>190381.0222000002</v>
       </c>
       <c r="H79" t="n">
-        <v>3.973833333333334</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,42 +3445,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
       <c r="C80" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
       <c r="F80" t="n">
-        <v>30929</v>
+        <v>248701.3342</v>
       </c>
       <c r="G80" t="n">
-        <v>4.052000000000002</v>
+        <v>439082.3564000002</v>
       </c>
       <c r="H80" t="n">
-        <v>3.9775</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,42 +3486,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>199304.3127</v>
+        <v>89874.85030000001</v>
       </c>
       <c r="G81" t="n">
-        <v>4.058000000000002</v>
+        <v>439082.3564000002</v>
       </c>
       <c r="H81" t="n">
-        <v>3.981666666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3928,42 +3527,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.16</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>4.16</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>60000</v>
+        <v>7038.075</v>
       </c>
       <c r="G82" t="n">
-        <v>4.068000000000002</v>
+        <v>439082.3564000002</v>
       </c>
       <c r="H82" t="n">
-        <v>3.986833333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,42 +3568,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>245917.4641148325</v>
+        <v>50855.826</v>
       </c>
       <c r="G83" t="n">
-        <v>4.077333333333336</v>
+        <v>439082.3564000002</v>
       </c>
       <c r="H83" t="n">
-        <v>3.992</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,42 +3609,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="C84" t="n">
-        <v>4.17</v>
+        <v>4.03</v>
       </c>
       <c r="D84" t="n">
-        <v>4.17</v>
+        <v>4.03</v>
       </c>
       <c r="E84" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="F84" t="n">
-        <v>57824.94</v>
+        <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>4.086000000000003</v>
+        <v>449082.3564000002</v>
       </c>
       <c r="H84" t="n">
-        <v>3.997333333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,42 +3650,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="C85" t="n">
-        <v>4.14</v>
+        <v>4.04</v>
       </c>
       <c r="D85" t="n">
-        <v>4.14</v>
+        <v>4.04</v>
       </c>
       <c r="E85" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="F85" t="n">
-        <v>9004.200000000001</v>
+        <v>20000</v>
       </c>
       <c r="G85" t="n">
-        <v>4.092000000000002</v>
+        <v>469082.3564000002</v>
       </c>
       <c r="H85" t="n">
-        <v>4.002166666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,42 +3691,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="C86" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="D86" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="E86" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="F86" t="n">
-        <v>9004</v>
+        <v>458561.8791</v>
       </c>
       <c r="G86" t="n">
-        <v>4.099333333333336</v>
+        <v>469082.3564000002</v>
       </c>
       <c r="H86" t="n">
-        <v>4.007333333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,42 +3732,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="C87" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="D87" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="E87" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="F87" t="n">
-        <v>65007.143</v>
+        <v>5000</v>
       </c>
       <c r="G87" t="n">
-        <v>4.106666666666669</v>
+        <v>469082.3564000002</v>
       </c>
       <c r="H87" t="n">
-        <v>4.011833333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,42 +3773,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="C88" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="D88" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="E88" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="F88" t="n">
-        <v>14777.2182</v>
+        <v>14.8514</v>
       </c>
       <c r="G88" t="n">
-        <v>4.116000000000002</v>
+        <v>469082.3564000002</v>
       </c>
       <c r="H88" t="n">
-        <v>4.016500000000001</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,42 +3814,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.14</v>
+        <v>4.02</v>
       </c>
       <c r="C89" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="D89" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="E89" t="n">
-        <v>4.14</v>
+        <v>4.02</v>
       </c>
       <c r="F89" t="n">
-        <v>89838.2283</v>
+        <v>10389.2289</v>
       </c>
       <c r="G89" t="n">
-        <v>4.122666666666669</v>
+        <v>458693.1275000002</v>
       </c>
       <c r="H89" t="n">
-        <v>4.021666666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,42 +3855,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="C90" t="n">
-        <v>4.17</v>
+        <v>3.99</v>
       </c>
       <c r="D90" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="E90" t="n">
-        <v>4.17</v>
+        <v>3.99</v>
       </c>
       <c r="F90" t="n">
-        <v>419000</v>
+        <v>115714.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>4.130000000000002</v>
+        <v>342978.1276000002</v>
       </c>
       <c r="H90" t="n">
-        <v>4.026166666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,42 +3896,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.15</v>
+        <v>4.02</v>
       </c>
       <c r="C91" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="D91" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="E91" t="n">
-        <v>4.09</v>
+        <v>4.02</v>
       </c>
       <c r="F91" t="n">
-        <v>306177.6705</v>
+        <v>17826</v>
       </c>
       <c r="G91" t="n">
-        <v>4.137333333333335</v>
+        <v>360804.1276000002</v>
       </c>
       <c r="H91" t="n">
-        <v>4.030666666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,42 +3937,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="C92" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="D92" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="E92" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="F92" t="n">
-        <v>120000</v>
+        <v>508.4156</v>
       </c>
       <c r="G92" t="n">
-        <v>4.145333333333336</v>
+        <v>360804.1276000002</v>
       </c>
       <c r="H92" t="n">
-        <v>4.036</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,42 +3978,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="C93" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="D93" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="E93" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="F93" t="n">
-        <v>591852.0794851675</v>
+        <v>254.9581</v>
       </c>
       <c r="G93" t="n">
-        <v>4.154666666666669</v>
+        <v>360804.1276000002</v>
       </c>
       <c r="H93" t="n">
-        <v>4.041333333333332</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,42 +4019,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="C94" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="D94" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="E94" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="F94" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G94" t="n">
-        <v>4.161333333333336</v>
+        <v>360404.1276000002</v>
       </c>
       <c r="H94" t="n">
-        <v>4.045999999999999</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,43 +4060,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="C95" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="D95" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="E95" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="F95" t="n">
-        <v>103009.6991148325</v>
+        <v>128000</v>
       </c>
       <c r="G95" t="n">
-        <v>4.16466666666667</v>
+        <v>488404.1276000002</v>
       </c>
       <c r="H95" t="n">
-        <v>4.050166666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>1.067538860103627</v>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4544,36 +4101,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="C96" t="n">
-        <v>4.17</v>
+        <v>4.03</v>
       </c>
       <c r="D96" t="n">
-        <v>4.17</v>
+        <v>4.03</v>
       </c>
       <c r="E96" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="F96" t="n">
-        <v>127207.9136</v>
+        <v>73414.39205955336</v>
       </c>
       <c r="G96" t="n">
-        <v>4.168000000000003</v>
+        <v>488404.1276000002</v>
       </c>
       <c r="H96" t="n">
-        <v>4.054333333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,36 +4142,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="C97" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="D97" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="E97" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="F97" t="n">
-        <v>100</v>
+        <v>61499.2645</v>
       </c>
       <c r="G97" t="n">
-        <v>4.168000000000003</v>
+        <v>549903.3921000002</v>
       </c>
       <c r="H97" t="n">
-        <v>4.058333333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,36 +4183,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="C98" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="D98" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="E98" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="F98" t="n">
-        <v>9000</v>
+        <v>110275.1817</v>
       </c>
       <c r="G98" t="n">
-        <v>4.168000000000003</v>
+        <v>549903.3921000002</v>
       </c>
       <c r="H98" t="n">
-        <v>4.062166666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,36 +4224,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="C99" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="D99" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="E99" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="F99" t="n">
-        <v>110000</v>
+        <v>80042.5254</v>
       </c>
       <c r="G99" t="n">
-        <v>4.168666666666669</v>
+        <v>629945.9175000002</v>
       </c>
       <c r="H99" t="n">
-        <v>4.066</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,36 +4265,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="C100" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="D100" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="E100" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="F100" t="n">
-        <v>13549.0171</v>
+        <v>40176.6418</v>
       </c>
       <c r="G100" t="n">
-        <v>4.171333333333336</v>
+        <v>629945.9175000002</v>
       </c>
       <c r="H100" t="n">
-        <v>4.069666666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,36 +4306,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="C101" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="D101" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="E101" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="F101" t="n">
-        <v>200940.4349</v>
+        <v>29111.9895</v>
       </c>
       <c r="G101" t="n">
-        <v>4.172666666666669</v>
+        <v>629945.9175000002</v>
       </c>
       <c r="H101" t="n">
-        <v>4.073333333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,36 +4347,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="C102" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="D102" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="E102" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="F102" t="n">
-        <v>43166</v>
+        <v>238565.214</v>
       </c>
       <c r="G102" t="n">
-        <v>4.174666666666669</v>
+        <v>391380.7035000002</v>
       </c>
       <c r="H102" t="n">
-        <v>4.077166666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,36 +4388,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.19</v>
+        <v>4.05</v>
       </c>
       <c r="C103" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="D103" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="E103" t="n">
-        <v>4.19</v>
+        <v>4.05</v>
       </c>
       <c r="F103" t="n">
-        <v>361000</v>
+        <v>59720</v>
       </c>
       <c r="G103" t="n">
-        <v>4.176000000000002</v>
+        <v>451100.7035000002</v>
       </c>
       <c r="H103" t="n">
-        <v>4.080833333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,36 +4429,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="C104" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="D104" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="E104" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="F104" t="n">
-        <v>410000</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>4.177333333333335</v>
+        <v>451000.7035000002</v>
       </c>
       <c r="H104" t="n">
-        <v>4.084333333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,36 +4470,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="C105" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="D105" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="E105" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="F105" t="n">
-        <v>49975.4439</v>
+        <v>10819.9769</v>
       </c>
       <c r="G105" t="n">
-        <v>4.178666666666668</v>
+        <v>451000.7035000002</v>
       </c>
       <c r="H105" t="n">
-        <v>4.0875</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,36 +4511,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="C106" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="D106" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="E106" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="F106" t="n">
-        <v>411000</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="n">
-        <v>4.180000000000001</v>
+        <v>451000.7035000002</v>
       </c>
       <c r="H106" t="n">
-        <v>4.091166666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,36 +4552,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="C107" t="n">
-        <v>4.19</v>
+        <v>4.04</v>
       </c>
       <c r="D107" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="E107" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="F107" t="n">
-        <v>1039429</v>
+        <v>759044.581</v>
       </c>
       <c r="G107" t="n">
-        <v>4.180666666666668</v>
+        <v>-308043.8774999998</v>
       </c>
       <c r="H107" t="n">
-        <v>4.0945</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,36 +4593,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="C108" t="n">
-        <v>4.19</v>
+        <v>4.08</v>
       </c>
       <c r="D108" t="n">
-        <v>4.19</v>
+        <v>4.08</v>
       </c>
       <c r="E108" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="F108" t="n">
-        <v>229800</v>
+        <v>431000</v>
       </c>
       <c r="G108" t="n">
-        <v>4.181333333333335</v>
+        <v>122956.1225000002</v>
       </c>
       <c r="H108" t="n">
-        <v>4.097833333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,36 +4634,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.19</v>
+        <v>4.08</v>
       </c>
       <c r="C109" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="D109" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="E109" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="F109" t="n">
-        <v>83161.8027</v>
+        <v>30929</v>
       </c>
       <c r="G109" t="n">
-        <v>4.182666666666668</v>
+        <v>153885.1225000002</v>
       </c>
       <c r="H109" t="n">
-        <v>4.101333333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,36 +4675,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.19</v>
+        <v>4.09</v>
       </c>
       <c r="C110" t="n">
-        <v>4.19</v>
+        <v>4.12</v>
       </c>
       <c r="D110" t="n">
-        <v>4.19</v>
+        <v>4.12</v>
       </c>
       <c r="E110" t="n">
-        <v>4.19</v>
+        <v>4.09</v>
       </c>
       <c r="F110" t="n">
-        <v>16778.5279</v>
+        <v>199304.3127</v>
       </c>
       <c r="G110" t="n">
-        <v>4.186000000000002</v>
+        <v>353189.4352000002</v>
       </c>
       <c r="H110" t="n">
-        <v>4.104666666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,36 +4716,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="C111" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="D111" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="E111" t="n">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="F111" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="G111" t="n">
-        <v>4.188000000000001</v>
+        <v>413189.4352000002</v>
       </c>
       <c r="H111" t="n">
-        <v>4.107999999999999</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,36 +4757,1060 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F112" t="n">
+        <v>245917.4641148325</v>
+      </c>
+      <c r="G112" t="n">
+        <v>413189.4352000002</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F113" t="n">
+        <v>57824.94</v>
+      </c>
+      <c r="G113" t="n">
+        <v>355364.4952000002</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1.075310880829016</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9004.200000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>346360.2952000002</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9004</v>
+      </c>
+      <c r="G115" t="n">
+        <v>355364.2952000002</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F116" t="n">
+        <v>65007.143</v>
+      </c>
+      <c r="G116" t="n">
+        <v>355364.2952000002</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F117" t="n">
+        <v>14777.2182</v>
+      </c>
+      <c r="G117" t="n">
+        <v>370141.5134000002</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F118" t="n">
+        <v>89838.2283</v>
+      </c>
+      <c r="G118" t="n">
+        <v>370141.5134000002</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F119" t="n">
+        <v>419000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>370141.5134000002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F120" t="n">
+        <v>306177.6705</v>
+      </c>
+      <c r="G120" t="n">
+        <v>370141.5134000002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F121" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>490141.5134000002</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F122" t="n">
+        <v>591852.0794851675</v>
+      </c>
+      <c r="G122" t="n">
+        <v>490141.5134000002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>490141.5134000002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F124" t="n">
+        <v>103009.6991148325</v>
+      </c>
+      <c r="G124" t="n">
+        <v>387131.8142851677</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F125" t="n">
+        <v>127207.9136</v>
+      </c>
+      <c r="G125" t="n">
+        <v>514339.7278851677</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100</v>
+      </c>
+      <c r="G126" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F128" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F129" t="n">
+        <v>13549.0171</v>
+      </c>
+      <c r="G129" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F130" t="n">
+        <v>200940.4349</v>
+      </c>
+      <c r="G130" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F131" t="n">
+        <v>43166</v>
+      </c>
+      <c r="G131" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F132" t="n">
+        <v>361000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F133" t="n">
+        <v>410000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F134" t="n">
+        <v>49975.4439</v>
+      </c>
+      <c r="G134" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F135" t="n">
+        <v>411000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1039429</v>
+      </c>
+      <c r="G136" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F137" t="n">
+        <v>229800</v>
+      </c>
+      <c r="G137" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C138" t="n">
         <v>4.2</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D138" t="n">
         <v>4.2</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E138" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F138" t="n">
+        <v>83161.8027</v>
+      </c>
+      <c r="G138" t="n">
+        <v>640767.5305851677</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16778.5279</v>
+      </c>
+      <c r="G139" t="n">
+        <v>623989.0026851677</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>4.2</v>
       </c>
-      <c r="E112" t="n">
+      <c r="C140" t="n">
         <v>4.2</v>
       </c>
-      <c r="F112" t="n">
+      <c r="D140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>643989.0026851677</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F141" t="n">
         <v>80022</v>
       </c>
-      <c r="G112" t="n">
-        <v>4.189333333333335</v>
-      </c>
-      <c r="H112" t="n">
-        <v>4.111333333333332</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="G141" t="n">
+        <v>643989.0026851677</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>20928.9311</v>
       </c>
       <c r="G2" t="n">
-        <v>174021.1288999999</v>
+        <v>3.939999999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>8592.269899999999</v>
       </c>
       <c r="G3" t="n">
-        <v>174021.1288999999</v>
+        <v>3.939999999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>40317.8979</v>
       </c>
       <c r="G4" t="n">
-        <v>174021.1288999999</v>
+        <v>3.939999999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>33216.9113</v>
       </c>
       <c r="G5" t="n">
-        <v>207238.0401999999</v>
+        <v>3.943333333333331</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>28110.3795</v>
       </c>
       <c r="G6" t="n">
-        <v>179127.6606999999</v>
+        <v>3.939999999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>17775.8495</v>
       </c>
       <c r="G7" t="n">
-        <v>196903.5101999999</v>
+        <v>3.939999999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>103810.9595</v>
       </c>
       <c r="G8" t="n">
-        <v>196903.5101999999</v>
+        <v>3.936666666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>36516.1025</v>
       </c>
       <c r="G9" t="n">
-        <v>196903.5101999999</v>
+        <v>3.939999999999997</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>14373.1988</v>
       </c>
       <c r="G10" t="n">
-        <v>211276.7089999999</v>
+        <v>3.943333333333331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>2101032.5946</v>
       </c>
       <c r="G11" t="n">
-        <v>-1889755.8856</v>
+        <v>3.929999999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>186803.1381</v>
       </c>
       <c r="G12" t="n">
-        <v>-1702952.7475</v>
+        <v>3.923333333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>493</v>
       </c>
       <c r="G13" t="n">
-        <v>-1702459.7475</v>
+        <v>3.923333333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>800</v>
       </c>
       <c r="G14" t="n">
-        <v>-1703259.7475</v>
+        <v>3.933333333333332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>13690.5513</v>
       </c>
       <c r="G15" t="n">
-        <v>-1703259.7475</v>
+        <v>3.936666666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>78000</v>
       </c>
       <c r="G16" t="n">
-        <v>-1703259.7475</v>
+        <v>3.929999999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>106000</v>
       </c>
       <c r="G17" t="n">
-        <v>-1703259.7475</v>
+        <v>3.929999999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>666</v>
       </c>
       <c r="G18" t="n">
-        <v>-1703259.7475</v>
+        <v>3.929999999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>29877.2681</v>
       </c>
       <c r="G19" t="n">
-        <v>-1733137.0156</v>
+        <v>3.926666666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>666</v>
       </c>
       <c r="G20" t="n">
-        <v>-1733137.0156</v>
+        <v>3.923333333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>2061.5662</v>
       </c>
       <c r="G21" t="n">
-        <v>-1735198.5818</v>
+        <v>3.916666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>666</v>
       </c>
       <c r="G22" t="n">
-        <v>-1735198.5818</v>
+        <v>3.913333333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>37.9204</v>
       </c>
       <c r="G23" t="n">
-        <v>-1735236.5022</v>
+        <v>3.906666666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>464.4818</v>
       </c>
       <c r="G24" t="n">
-        <v>-1735236.5022</v>
+        <v>3.903333333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>2740.6464</v>
       </c>
       <c r="G25" t="n">
-        <v>-1735236.5022</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>11679.5886</v>
       </c>
       <c r="G26" t="n">
-        <v>-1746916.0908</v>
+        <v>3.896666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>2724.9357</v>
       </c>
       <c r="G27" t="n">
-        <v>-1746916.0908</v>
+        <v>3.893333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1341,6 +1371,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1362,7 +1393,7 @@
         <v>14020</v>
       </c>
       <c r="G28" t="n">
-        <v>-1746916.0908</v>
+        <v>3.889999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1382,6 +1413,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1403,7 +1435,7 @@
         <v>43395.9897</v>
       </c>
       <c r="G29" t="n">
-        <v>-1746916.0908</v>
+        <v>3.889999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1425,6 +1457,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1446,7 +1479,7 @@
         <v>15048.3671</v>
       </c>
       <c r="G30" t="n">
-        <v>-1761964.4579</v>
+        <v>3.886666666666665</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1464,6 +1497,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1485,7 +1519,7 @@
         <v>15386.1947</v>
       </c>
       <c r="G31" t="n">
-        <v>-1761964.4579</v>
+        <v>3.883333333333332</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1507,6 +1541,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1528,7 +1563,7 @@
         <v>27057.6954</v>
       </c>
       <c r="G32" t="n">
-        <v>-1789022.1533</v>
+        <v>3.876666666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1548,6 +1583,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1569,7 +1605,7 @@
         <v>6334.5397</v>
       </c>
       <c r="G33" t="n">
-        <v>-1789022.1533</v>
+        <v>3.873333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1583,6 +1619,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1604,7 +1641,7 @@
         <v>60704.3393</v>
       </c>
       <c r="G34" t="n">
-        <v>-1849726.4926</v>
+        <v>3.866666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1618,6 +1655,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1639,7 +1677,7 @@
         <v>51935.4005</v>
       </c>
       <c r="G35" t="n">
-        <v>-1797791.0921</v>
+        <v>3.866666666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1653,6 +1691,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1674,7 +1713,7 @@
         <v>103319.2177</v>
       </c>
       <c r="G36" t="n">
-        <v>-1901110.3098</v>
+        <v>3.863333333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1688,6 +1727,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1709,7 +1749,7 @@
         <v>28828.1657</v>
       </c>
       <c r="G37" t="n">
-        <v>-1901110.3098</v>
+        <v>3.863333333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,6 +1763,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1744,7 +1785,7 @@
         <v>66108.7041</v>
       </c>
       <c r="G38" t="n">
-        <v>-1967219.0139</v>
+        <v>3.856666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,6 +1799,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1779,7 +1821,7 @@
         <v>3197.1153</v>
       </c>
       <c r="G39" t="n">
-        <v>-1964021.8986</v>
+        <v>3.856666666666666</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1797,6 +1839,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1818,7 +1861,7 @@
         <v>96746.04949999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-1964021.8986</v>
+        <v>3.856666666666666</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1840,6 +1883,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1861,7 +1905,7 @@
         <v>30201.2462</v>
       </c>
       <c r="G41" t="n">
-        <v>-1964021.8986</v>
+        <v>3.859999999999999</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1883,6 +1927,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1904,7 +1949,7 @@
         <v>114252.5662</v>
       </c>
       <c r="G42" t="n">
-        <v>-1964021.8986</v>
+        <v>3.859999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1922,6 +1967,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1943,7 +1989,7 @@
         <v>2072.0929</v>
       </c>
       <c r="G43" t="n">
-        <v>-1961949.8057</v>
+        <v>3.863333333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1963,6 +2009,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1984,7 +2031,7 @@
         <v>1972313.1015</v>
       </c>
       <c r="G44" t="n">
-        <v>10363.2958000002</v>
+        <v>3.873333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,6 +2051,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2025,7 +2073,7 @@
         <v>19217.6148</v>
       </c>
       <c r="G45" t="n">
-        <v>-8854.318999999803</v>
+        <v>3.879999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2045,6 +2093,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2066,7 +2115,7 @@
         <v>251.2886</v>
       </c>
       <c r="G46" t="n">
-        <v>-8854.318999999803</v>
+        <v>3.883333333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2086,6 +2135,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2107,7 +2157,7 @@
         <v>87641.0206</v>
       </c>
       <c r="G47" t="n">
-        <v>-96495.3395999998</v>
+        <v>3.876666666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2127,6 +2177,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2148,7 +2199,7 @@
         <v>246547.7356</v>
       </c>
       <c r="G48" t="n">
-        <v>-343043.0751999998</v>
+        <v>3.869999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2168,6 +2219,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2189,7 +2241,7 @@
         <v>19217.6148</v>
       </c>
       <c r="G49" t="n">
-        <v>-323825.4603999999</v>
+        <v>3.866666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2209,6 +2261,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2230,7 +2283,7 @@
         <v>34217.7342</v>
       </c>
       <c r="G50" t="n">
-        <v>-323825.4603999999</v>
+        <v>3.866666666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2250,6 +2303,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2271,7 +2325,7 @@
         <v>64690.9472</v>
       </c>
       <c r="G51" t="n">
-        <v>-323825.4603999999</v>
+        <v>3.87</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2291,6 +2345,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2312,7 +2367,7 @@
         <v>145574.4342</v>
       </c>
       <c r="G52" t="n">
-        <v>-323825.4603999999</v>
+        <v>3.87</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2332,6 +2387,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2353,7 +2409,7 @@
         <v>396.8831</v>
       </c>
       <c r="G53" t="n">
-        <v>-324222.3434999998</v>
+        <v>3.863333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2373,6 +2429,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2394,7 +2451,7 @@
         <v>2718.1234</v>
       </c>
       <c r="G54" t="n">
-        <v>-324222.3434999998</v>
+        <v>3.856666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2414,6 +2471,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2435,7 +2493,7 @@
         <v>286981</v>
       </c>
       <c r="G55" t="n">
-        <v>-324222.3434999998</v>
+        <v>3.85</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2455,6 +2513,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2476,7 +2535,7 @@
         <v>1257.5321</v>
       </c>
       <c r="G56" t="n">
-        <v>-322964.8113999998</v>
+        <v>3.863333333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2496,6 +2555,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2517,7 +2577,7 @@
         <v>1951.928</v>
       </c>
       <c r="G57" t="n">
-        <v>-322964.8113999998</v>
+        <v>3.876666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2537,6 +2597,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2558,7 +2619,7 @@
         <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>-323964.8113999998</v>
+        <v>3.880000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2578,6 +2639,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2599,7 +2661,7 @@
         <v>421.7948</v>
       </c>
       <c r="G59" t="n">
-        <v>-323543.0165999999</v>
+        <v>3.883333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2619,6 +2681,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2640,7 +2703,7 @@
         <v>17699.2307</v>
       </c>
       <c r="G60" t="n">
-        <v>-323543.0165999999</v>
+        <v>3.886666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2660,6 +2723,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2681,7 +2745,7 @@
         <v>101</v>
       </c>
       <c r="G61" t="n">
-        <v>-323644.0165999999</v>
+        <v>3.886666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2701,6 +2765,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2722,7 +2787,7 @@
         <v>10861.0147</v>
       </c>
       <c r="G62" t="n">
-        <v>-323644.0165999999</v>
+        <v>3.873333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2742,6 +2807,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2763,7 +2829,7 @@
         <v>37000</v>
       </c>
       <c r="G63" t="n">
-        <v>-286644.0165999999</v>
+        <v>3.873333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2783,6 +2849,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2804,7 +2871,7 @@
         <v>5640</v>
       </c>
       <c r="G64" t="n">
-        <v>-292284.0165999999</v>
+        <v>3.883333333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2824,6 +2891,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2845,7 +2913,7 @@
         <v>132000</v>
       </c>
       <c r="G65" t="n">
-        <v>-160284.0165999999</v>
+        <v>3.903333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2865,6 +2933,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2886,7 +2955,7 @@
         <v>219000</v>
       </c>
       <c r="G66" t="n">
-        <v>58715.98340000014</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2906,6 +2975,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2927,7 +2997,7 @@
         <v>194000</v>
       </c>
       <c r="G67" t="n">
-        <v>252715.9834000001</v>
+        <v>3.936666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2947,6 +3017,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2968,7 +3039,7 @@
         <v>496972.2985</v>
       </c>
       <c r="G68" t="n">
-        <v>252715.9834000001</v>
+        <v>3.946666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2988,6 +3059,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3009,7 +3081,7 @@
         <v>77593.18180000001</v>
       </c>
       <c r="G69" t="n">
-        <v>330309.1652000002</v>
+        <v>3.953333333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3029,6 +3101,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3050,7 +3123,7 @@
         <v>61980.8182</v>
       </c>
       <c r="G70" t="n">
-        <v>330309.1652000002</v>
+        <v>3.956666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3070,6 +3143,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3091,7 +3165,7 @@
         <v>99750</v>
       </c>
       <c r="G71" t="n">
-        <v>330309.1652000002</v>
+        <v>3.960000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3111,6 +3185,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3132,7 +3207,7 @@
         <v>12.6288</v>
       </c>
       <c r="G72" t="n">
-        <v>330321.7940000002</v>
+        <v>3.963333333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3152,6 +3227,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3173,7 +3249,7 @@
         <v>14214.5141</v>
       </c>
       <c r="G73" t="n">
-        <v>344536.3081000001</v>
+        <v>3.970000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3193,6 +3269,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3214,7 +3291,7 @@
         <v>13.125</v>
       </c>
       <c r="G74" t="n">
-        <v>344549.4331000001</v>
+        <v>3.983333333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3234,6 +3311,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3255,7 +3333,7 @@
         <v>154268.4109</v>
       </c>
       <c r="G75" t="n">
-        <v>190281.0222000002</v>
+        <v>3.983333333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3275,6 +3353,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3296,7 +3375,7 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>190381.0222000002</v>
+        <v>3.986666666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3316,6 +3395,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3337,7 +3417,7 @@
         <v>2507</v>
       </c>
       <c r="G77" t="n">
-        <v>190381.0222000002</v>
+        <v>3.983333333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3357,6 +3437,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3378,7 +3459,7 @@
         <v>16358.5417</v>
       </c>
       <c r="G78" t="n">
-        <v>190381.0222000002</v>
+        <v>3.990000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3398,6 +3479,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3419,7 +3501,7 @@
         <v>107500</v>
       </c>
       <c r="G79" t="n">
-        <v>190381.0222000002</v>
+        <v>3.990000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3439,6 +3521,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3460,7 +3543,7 @@
         <v>248701.3342</v>
       </c>
       <c r="G80" t="n">
-        <v>439082.3564000002</v>
+        <v>3.993333333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3480,6 +3563,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3501,7 +3585,7 @@
         <v>89874.85030000001</v>
       </c>
       <c r="G81" t="n">
-        <v>439082.3564000002</v>
+        <v>3.996666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3521,6 +3605,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3542,7 +3627,7 @@
         <v>7038.075</v>
       </c>
       <c r="G82" t="n">
-        <v>439082.3564000002</v>
+        <v>4.000000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3562,6 +3647,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3583,7 +3669,7 @@
         <v>50855.826</v>
       </c>
       <c r="G83" t="n">
-        <v>439082.3564000002</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3603,6 +3689,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3624,7 +3711,7 @@
         <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>449082.3564000002</v>
+        <v>4.010000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3644,6 +3731,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3665,7 +3753,7 @@
         <v>20000</v>
       </c>
       <c r="G85" t="n">
-        <v>469082.3564000002</v>
+        <v>4.023333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3685,6 +3773,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3706,7 +3795,7 @@
         <v>458561.8791</v>
       </c>
       <c r="G86" t="n">
-        <v>469082.3564000002</v>
+        <v>4.036666666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3726,6 +3815,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3747,7 +3837,7 @@
         <v>5000</v>
       </c>
       <c r="G87" t="n">
-        <v>469082.3564000002</v>
+        <v>4.039999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3767,6 +3857,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3788,7 +3879,7 @@
         <v>14.8514</v>
       </c>
       <c r="G88" t="n">
-        <v>469082.3564000002</v>
+        <v>4.039999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3808,6 +3899,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3829,7 +3921,7 @@
         <v>10389.2289</v>
       </c>
       <c r="G89" t="n">
-        <v>458693.1275000002</v>
+        <v>4.033333333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3849,6 +3941,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3870,7 +3963,7 @@
         <v>115714.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>342978.1276000002</v>
+        <v>4.016666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3890,6 +3983,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3911,7 +4005,7 @@
         <v>17826</v>
       </c>
       <c r="G91" t="n">
-        <v>360804.1276000002</v>
+        <v>4.009999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3931,6 +4025,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3952,7 +4047,7 @@
         <v>508.4156</v>
       </c>
       <c r="G92" t="n">
-        <v>360804.1276000002</v>
+        <v>4.009999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3972,6 +4067,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3993,7 +4089,7 @@
         <v>254.9581</v>
       </c>
       <c r="G93" t="n">
-        <v>360804.1276000002</v>
+        <v>4.019999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4013,6 +4109,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4034,7 +4131,7 @@
         <v>400</v>
       </c>
       <c r="G94" t="n">
-        <v>360404.1276000002</v>
+        <v>4.006666666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4054,6 +4151,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4075,7 +4173,7 @@
         <v>128000</v>
       </c>
       <c r="G95" t="n">
-        <v>488404.1276000002</v>
+        <v>4.009999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4095,6 +4193,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4116,7 +4215,7 @@
         <v>73414.39205955336</v>
       </c>
       <c r="G96" t="n">
-        <v>488404.1276000002</v>
+        <v>4.013333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4136,6 +4235,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4157,7 +4257,7 @@
         <v>61499.2645</v>
       </c>
       <c r="G97" t="n">
-        <v>549903.3921000002</v>
+        <v>4.033333333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4177,6 +4277,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4198,7 +4299,7 @@
         <v>110275.1817</v>
       </c>
       <c r="G98" t="n">
-        <v>549903.3921000002</v>
+        <v>4.036666666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4218,6 +4319,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4239,7 +4341,7 @@
         <v>80042.5254</v>
       </c>
       <c r="G99" t="n">
-        <v>629945.9175000002</v>
+        <v>4.043333333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4259,6 +4361,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4280,7 +4383,7 @@
         <v>40176.6418</v>
       </c>
       <c r="G100" t="n">
-        <v>629945.9175000002</v>
+        <v>4.046666666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4300,6 +4403,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4321,7 +4425,7 @@
         <v>29111.9895</v>
       </c>
       <c r="G101" t="n">
-        <v>629945.9175000002</v>
+        <v>4.05</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4341,6 +4445,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4362,7 +4467,7 @@
         <v>238565.214</v>
       </c>
       <c r="G102" t="n">
-        <v>391380.7035000002</v>
+        <v>4.043333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4382,6 +4487,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4403,7 +4509,7 @@
         <v>59720</v>
       </c>
       <c r="G103" t="n">
-        <v>451100.7035000002</v>
+        <v>4.05</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4423,6 +4529,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4444,7 +4551,7 @@
         <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>451000.7035000002</v>
+        <v>4.053333333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4464,6 +4571,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4485,7 +4593,7 @@
         <v>10819.9769</v>
       </c>
       <c r="G105" t="n">
-        <v>451000.7035000002</v>
+        <v>4.063333333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4505,6 +4613,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4526,7 +4635,7 @@
         <v>2000</v>
       </c>
       <c r="G106" t="n">
-        <v>451000.7035000002</v>
+        <v>4.059999999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4546,6 +4655,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4567,7 +4677,7 @@
         <v>759044.581</v>
       </c>
       <c r="G107" t="n">
-        <v>-308043.8774999998</v>
+        <v>4.053333333333331</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4587,6 +4697,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4608,7 +4719,7 @@
         <v>431000</v>
       </c>
       <c r="G108" t="n">
-        <v>122956.1225000002</v>
+        <v>4.059999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4628,6 +4739,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4649,7 +4761,7 @@
         <v>30929</v>
       </c>
       <c r="G109" t="n">
-        <v>153885.1225000002</v>
+        <v>4.069999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4669,6 +4781,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4690,7 +4803,7 @@
         <v>199304.3127</v>
       </c>
       <c r="G110" t="n">
-        <v>353189.4352000002</v>
+        <v>4.096666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4710,6 +4823,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4731,7 +4845,7 @@
         <v>60000</v>
       </c>
       <c r="G111" t="n">
-        <v>413189.4352000002</v>
+        <v>4.13</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4751,6 +4865,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4772,13 +4887,13 @@
         <v>245917.4641148325</v>
       </c>
       <c r="G112" t="n">
-        <v>413189.4352000002</v>
+        <v>4.16</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -4786,11 +4901,14 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>1.077901554404145</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.025974025974026</v>
       </c>
     </row>
     <row r="113">
@@ -4813,7 +4931,7 @@
         <v>57824.94</v>
       </c>
       <c r="G113" t="n">
-        <v>355364.4952000002</v>
+        <v>4.176666666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4822,17 +4940,12 @@
         <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>1.075310880829016</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4854,13 +4967,13 @@
         <v>9004.200000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>346360.2952000002</v>
+        <v>4.163333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4868,6 +4981,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4889,13 +5003,13 @@
         <v>9004</v>
       </c>
       <c r="G115" t="n">
-        <v>355364.2952000002</v>
+        <v>4.156666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4903,6 +5017,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4924,13 +5039,13 @@
         <v>65007.143</v>
       </c>
       <c r="G116" t="n">
-        <v>355364.2952000002</v>
+        <v>4.153333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4938,6 +5053,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4959,7 +5075,7 @@
         <v>14777.2182</v>
       </c>
       <c r="G117" t="n">
-        <v>370141.5134000002</v>
+        <v>4.163333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4973,6 +5089,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4994,7 +5111,7 @@
         <v>89838.2283</v>
       </c>
       <c r="G118" t="n">
-        <v>370141.5134000002</v>
+        <v>4.166666666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5008,6 +5125,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5029,7 +5147,7 @@
         <v>419000</v>
       </c>
       <c r="G119" t="n">
-        <v>370141.5134000002</v>
+        <v>4.169999999999998</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5043,6 +5161,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5064,7 +5183,7 @@
         <v>306177.6705</v>
       </c>
       <c r="G120" t="n">
-        <v>370141.5134000002</v>
+        <v>4.169999999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5078,6 +5197,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5099,7 +5219,7 @@
         <v>120000</v>
       </c>
       <c r="G121" t="n">
-        <v>490141.5134000002</v>
+        <v>4.17333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5113,6 +5233,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5134,7 +5255,7 @@
         <v>591852.0794851675</v>
       </c>
       <c r="G122" t="n">
-        <v>490141.5134000002</v>
+        <v>4.176666666666663</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5148,6 +5269,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5169,7 +5291,7 @@
         <v>2000</v>
       </c>
       <c r="G123" t="n">
-        <v>490141.5134000002</v>
+        <v>4.179999999999995</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5183,6 +5305,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5204,7 +5327,7 @@
         <v>103009.6991148325</v>
       </c>
       <c r="G124" t="n">
-        <v>387131.8142851677</v>
+        <v>4.166666666666662</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5218,6 +5341,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5239,7 +5363,7 @@
         <v>127207.9136</v>
       </c>
       <c r="G125" t="n">
-        <v>514339.7278851677</v>
+        <v>4.16333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5253,6 +5377,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5274,7 +5399,7 @@
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>514439.7278851677</v>
+        <v>4.16333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5288,6 +5413,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5309,7 +5435,7 @@
         <v>9000</v>
       </c>
       <c r="G127" t="n">
-        <v>514439.7278851677</v>
+        <v>4.176666666666662</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5323,6 +5449,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5344,7 +5471,7 @@
         <v>110000</v>
       </c>
       <c r="G128" t="n">
-        <v>514439.7278851677</v>
+        <v>4.179999999999995</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5358,6 +5485,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5379,7 +5507,7 @@
         <v>13549.0171</v>
       </c>
       <c r="G129" t="n">
-        <v>514439.7278851677</v>
+        <v>4.179999999999995</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5393,6 +5521,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5414,7 +5543,7 @@
         <v>200940.4349</v>
       </c>
       <c r="G130" t="n">
-        <v>514439.7278851677</v>
+        <v>4.179999999999995</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5428,6 +5557,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5449,7 +5579,7 @@
         <v>43166</v>
       </c>
       <c r="G131" t="n">
-        <v>557605.7278851677</v>
+        <v>4.183333333333329</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5463,6 +5593,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5484,7 +5615,7 @@
         <v>361000</v>
       </c>
       <c r="G132" t="n">
-        <v>557605.7278851677</v>
+        <v>4.186666666666663</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5498,6 +5629,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5519,7 +5651,7 @@
         <v>410000</v>
       </c>
       <c r="G133" t="n">
-        <v>557605.7278851677</v>
+        <v>4.189999999999997</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5533,6 +5665,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5554,7 +5687,7 @@
         <v>49975.4439</v>
       </c>
       <c r="G134" t="n">
-        <v>557605.7278851677</v>
+        <v>4.189999999999997</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5568,6 +5701,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5589,7 +5723,7 @@
         <v>411000</v>
       </c>
       <c r="G135" t="n">
-        <v>557605.7278851677</v>
+        <v>4.189999999999997</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5603,6 +5737,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5624,7 +5759,7 @@
         <v>1039429</v>
       </c>
       <c r="G136" t="n">
-        <v>557605.7278851677</v>
+        <v>4.189999999999997</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5638,6 +5773,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5659,7 +5795,7 @@
         <v>229800</v>
       </c>
       <c r="G137" t="n">
-        <v>557605.7278851677</v>
+        <v>4.189999999999997</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5673,6 +5809,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5694,7 +5831,7 @@
         <v>83161.8027</v>
       </c>
       <c r="G138" t="n">
-        <v>640767.5305851677</v>
+        <v>4.193333333333329</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5708,6 +5845,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5729,7 +5867,7 @@
         <v>16778.5279</v>
       </c>
       <c r="G139" t="n">
-        <v>623989.0026851677</v>
+        <v>4.193333333333329</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5743,6 +5881,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5764,7 +5903,7 @@
         <v>20000</v>
       </c>
       <c r="G140" t="n">
-        <v>643989.0026851677</v>
+        <v>4.196666666666662</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5778,6 +5917,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5799,7 +5939,7 @@
         <v>80022</v>
       </c>
       <c r="G141" t="n">
-        <v>643989.0026851677</v>
+        <v>4.196666666666662</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5813,6 +5953,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="C2" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="D2" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="E2" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="F2" t="n">
-        <v>20928.9311</v>
+        <v>28371.7199</v>
       </c>
       <c r="G2" t="n">
-        <v>3.939999999999998</v>
+        <v>-684429.6663</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="C3" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="D3" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="E3" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="F3" t="n">
-        <v>8592.269899999999</v>
+        <v>2590.6735</v>
       </c>
       <c r="G3" t="n">
-        <v>3.939999999999998</v>
+        <v>-684429.6663</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.86</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="C4" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="E4" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="F4" t="n">
-        <v>40317.8979</v>
+        <v>18531.8469</v>
       </c>
       <c r="G4" t="n">
-        <v>3.939999999999998</v>
+        <v>-684429.6663</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="C5" t="n">
-        <v>3.95</v>
+        <v>3.89</v>
       </c>
       <c r="D5" t="n">
-        <v>3.95</v>
+        <v>3.89</v>
       </c>
       <c r="E5" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="F5" t="n">
-        <v>33216.9113</v>
+        <v>71463.8872</v>
       </c>
       <c r="G5" t="n">
-        <v>3.943333333333331</v>
+        <v>-612965.7791</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="C6" t="n">
-        <v>3.93</v>
+        <v>3.85</v>
       </c>
       <c r="D6" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="E6" t="n">
-        <v>3.93</v>
+        <v>3.85</v>
       </c>
       <c r="F6" t="n">
-        <v>28110.3795</v>
+        <v>6982.5051</v>
       </c>
       <c r="G6" t="n">
-        <v>3.939999999999998</v>
+        <v>-619948.2842</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="C7" t="n">
         <v>3.94</v>
@@ -627,23 +655,31 @@
         <v>3.94</v>
       </c>
       <c r="E7" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="F7" t="n">
-        <v>17775.8495</v>
+        <v>25316.4556</v>
       </c>
       <c r="G7" t="n">
-        <v>3.939999999999998</v>
+        <v>-594631.8286</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="C8" t="n">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="n">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="E8" t="n">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="F8" t="n">
-        <v>103810.9595</v>
+        <v>10947.1064</v>
       </c>
       <c r="G8" t="n">
-        <v>3.936666666666664</v>
+        <v>-605578.9350000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +714,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +732,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="C9" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="D9" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="E9" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="F9" t="n">
-        <v>36516.1025</v>
+        <v>14361.34</v>
       </c>
       <c r="G9" t="n">
-        <v>3.939999999999997</v>
+        <v>-591217.5950000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +756,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="C10" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="D10" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="E10" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="F10" t="n">
-        <v>14373.1988</v>
+        <v>15742.2268</v>
       </c>
       <c r="G10" t="n">
-        <v>3.943333333333331</v>
+        <v>-575475.3682000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +798,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="C11" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="D11" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="E11" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="F11" t="n">
-        <v>2101032.5946</v>
+        <v>104445.6112</v>
       </c>
       <c r="G11" t="n">
-        <v>3.929999999999998</v>
+        <v>-575475.3682000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +840,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +858,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C12" t="n">
         <v>3.95</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.92</v>
       </c>
       <c r="D12" t="n">
         <v>3.95</v>
       </c>
       <c r="E12" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="F12" t="n">
-        <v>186803.1381</v>
+        <v>285224.8695</v>
       </c>
       <c r="G12" t="n">
-        <v>3.923333333333332</v>
+        <v>-290250.4987000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +882,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -846,10 +912,10 @@
         <v>3.95</v>
       </c>
       <c r="F13" t="n">
-        <v>493</v>
+        <v>41146.6588</v>
       </c>
       <c r="G13" t="n">
-        <v>3.923333333333332</v>
+        <v>-290250.4987000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C14" t="n">
         <v>3.95</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.93</v>
       </c>
       <c r="D14" t="n">
         <v>3.95</v>
       </c>
       <c r="E14" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="F14" t="n">
-        <v>800</v>
+        <v>14377.4395</v>
       </c>
       <c r="G14" t="n">
-        <v>3.933333333333332</v>
+        <v>-290250.4987000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +966,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="C15" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="D15" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="E15" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="F15" t="n">
-        <v>13690.5513</v>
+        <v>6841.113</v>
       </c>
       <c r="G15" t="n">
-        <v>3.936666666666665</v>
+        <v>-290250.4987000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1008,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1026,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="C16" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="D16" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="E16" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="F16" t="n">
-        <v>78000</v>
+        <v>5000</v>
       </c>
       <c r="G16" t="n">
-        <v>3.929999999999998</v>
+        <v>-290250.4987000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1050,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1068,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="C17" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="D17" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="E17" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="F17" t="n">
-        <v>106000</v>
+        <v>15467.8208</v>
       </c>
       <c r="G17" t="n">
-        <v>3.929999999999998</v>
+        <v>-305718.3195000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1110,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="C18" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="D18" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="E18" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="F18" t="n">
-        <v>666</v>
+        <v>11945.6986</v>
       </c>
       <c r="G18" t="n">
-        <v>3.929999999999998</v>
+        <v>-305718.3195000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1134,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1152,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="C19" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="D19" t="n">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="E19" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="F19" t="n">
-        <v>29877.2681</v>
+        <v>20000</v>
       </c>
       <c r="G19" t="n">
-        <v>3.926666666666665</v>
+        <v>-305718.3195000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1176,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1194,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="C20" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="D20" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="E20" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="F20" t="n">
-        <v>666</v>
+        <v>185706.4061</v>
       </c>
       <c r="G20" t="n">
-        <v>3.923333333333332</v>
+        <v>-305718.3195000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1218,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1134,10 +1248,10 @@
         <v>3.91</v>
       </c>
       <c r="F21" t="n">
-        <v>2061.5662</v>
+        <v>168247.321</v>
       </c>
       <c r="G21" t="n">
-        <v>3.916666666666666</v>
+        <v>-473965.6405000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1260,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1170,10 +1290,10 @@
         <v>3.91</v>
       </c>
       <c r="F22" t="n">
-        <v>666</v>
+        <v>120941</v>
       </c>
       <c r="G22" t="n">
-        <v>3.913333333333332</v>
+        <v>-473965.6405000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1302,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1206,10 +1332,10 @@
         <v>3.9</v>
       </c>
       <c r="F23" t="n">
-        <v>37.9204</v>
+        <v>2528.6054</v>
       </c>
       <c r="G23" t="n">
-        <v>3.906666666666666</v>
+        <v>-476494.2459000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1344,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1242,10 +1374,10 @@
         <v>3.9</v>
       </c>
       <c r="F24" t="n">
-        <v>464.4818</v>
+        <v>65496.5269</v>
       </c>
       <c r="G24" t="n">
-        <v>3.903333333333332</v>
+        <v>-476494.2459000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1404,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="C25" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="D25" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="E25" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="F25" t="n">
-        <v>2740.6464</v>
+        <v>1620.1554</v>
       </c>
       <c r="G25" t="n">
-        <v>3.899999999999999</v>
+        <v>-478114.4013000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1428,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1446,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="C26" t="n">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="D26" t="n">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="E26" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="F26" t="n">
-        <v>11679.5886</v>
+        <v>23606.2685</v>
       </c>
       <c r="G26" t="n">
-        <v>3.896666666666666</v>
+        <v>-454508.1328000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,36 +1488,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
       <c r="C27" t="n">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
       <c r="D27" t="n">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
       <c r="E27" t="n">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
       <c r="F27" t="n">
-        <v>2724.9357</v>
+        <v>161082.9766</v>
       </c>
       <c r="G27" t="n">
-        <v>3.893333333333333</v>
+        <v>-293425.1562000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.89</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1530,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.89</v>
+        <v>3.96</v>
       </c>
       <c r="C28" t="n">
-        <v>3.89</v>
+        <v>3.96</v>
       </c>
       <c r="D28" t="n">
-        <v>3.89</v>
+        <v>3.96</v>
       </c>
       <c r="E28" t="n">
-        <v>3.89</v>
+        <v>3.96</v>
       </c>
       <c r="F28" t="n">
-        <v>14020</v>
+        <v>551381.8181</v>
       </c>
       <c r="G28" t="n">
-        <v>3.889999999999999</v>
+        <v>257956.6618999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1403,11 +1555,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1420,38 +1572,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.89</v>
+        <v>3.94</v>
       </c>
       <c r="C29" t="n">
-        <v>3.89</v>
+        <v>3.94</v>
       </c>
       <c r="D29" t="n">
-        <v>3.89</v>
+        <v>3.94</v>
       </c>
       <c r="E29" t="n">
-        <v>3.89</v>
+        <v>3.94</v>
       </c>
       <c r="F29" t="n">
-        <v>43395.9897</v>
+        <v>83935.533</v>
       </c>
       <c r="G29" t="n">
-        <v>3.889999999999999</v>
+        <v>174021.1288999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.89</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1464,36 +1614,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="C30" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="D30" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="E30" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="F30" t="n">
-        <v>15048.3671</v>
+        <v>7000</v>
       </c>
       <c r="G30" t="n">
-        <v>3.886666666666665</v>
+        <v>174021.1288999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.89</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1504,38 +1656,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="C31" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="D31" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="E31" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="F31" t="n">
-        <v>15386.1947</v>
+        <v>20928.9311</v>
       </c>
       <c r="G31" t="n">
-        <v>3.883333333333332</v>
+        <v>174021.1288999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.88</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1548,22 +1698,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="C32" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="D32" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="E32" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="F32" t="n">
-        <v>27057.6954</v>
+        <v>8592.269899999999</v>
       </c>
       <c r="G32" t="n">
-        <v>3.876666666666665</v>
+        <v>174021.1288999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1573,11 +1723,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1590,22 +1740,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="C33" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="D33" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="E33" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="F33" t="n">
-        <v>6334.5397</v>
+        <v>40317.8979</v>
       </c>
       <c r="G33" t="n">
-        <v>3.873333333333333</v>
+        <v>174021.1288999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1614,8 +1764,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1782,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C34" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="D34" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E34" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="F34" t="n">
-        <v>60704.3393</v>
+        <v>33216.9113</v>
       </c>
       <c r="G34" t="n">
-        <v>3.866666666666666</v>
+        <v>207238.0401999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1650,8 +1806,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1824,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="C35" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="D35" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="E35" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="F35" t="n">
-        <v>51935.4005</v>
+        <v>28110.3795</v>
       </c>
       <c r="G35" t="n">
-        <v>3.866666666666666</v>
+        <v>179127.6606999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1686,8 +1848,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1866,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="C36" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="D36" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="E36" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="F36" t="n">
-        <v>103319.2177</v>
+        <v>17775.8495</v>
       </c>
       <c r="G36" t="n">
-        <v>3.863333333333332</v>
+        <v>196903.5101999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1722,8 +1890,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1908,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="C37" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="D37" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="E37" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="F37" t="n">
-        <v>28828.1657</v>
+        <v>103810.9595</v>
       </c>
       <c r="G37" t="n">
-        <v>3.863333333333332</v>
+        <v>196903.5101999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1758,8 +1932,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1950,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="C38" t="n">
-        <v>3.85</v>
+        <v>3.94</v>
       </c>
       <c r="D38" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="E38" t="n">
-        <v>3.85</v>
+        <v>3.94</v>
       </c>
       <c r="F38" t="n">
-        <v>66108.7041</v>
+        <v>36516.1025</v>
       </c>
       <c r="G38" t="n">
-        <v>3.856666666666666</v>
+        <v>196903.5101999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1794,8 +1974,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1806,36 +1992,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C39" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="D39" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E39" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="F39" t="n">
-        <v>3197.1153</v>
+        <v>14373.1988</v>
       </c>
       <c r="G39" t="n">
-        <v>3.856666666666666</v>
+        <v>211276.7089999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>3.85</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1846,38 +2034,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C40" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="D40" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E40" t="n">
-        <v>3.86</v>
+        <v>3.9</v>
       </c>
       <c r="F40" t="n">
-        <v>96746.04949999999</v>
+        <v>2101032.5946</v>
       </c>
       <c r="G40" t="n">
-        <v>3.856666666666666</v>
+        <v>-1889755.8856</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1890,38 +2076,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C41" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="D41" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E41" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="F41" t="n">
-        <v>30201.2462</v>
+        <v>186803.1381</v>
       </c>
       <c r="G41" t="n">
-        <v>3.859999999999999</v>
+        <v>-1702952.7475</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1934,36 +2118,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="C42" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="D42" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="E42" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="F42" t="n">
-        <v>114252.5662</v>
+        <v>493</v>
       </c>
       <c r="G42" t="n">
-        <v>3.859999999999999</v>
+        <v>-1702459.7475</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>3.86</v>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1974,22 +2160,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
       <c r="C43" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="D43" t="n">
-        <v>3.87</v>
+        <v>3.95</v>
       </c>
       <c r="E43" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="F43" t="n">
-        <v>2072.0929</v>
+        <v>800</v>
       </c>
       <c r="G43" t="n">
-        <v>3.863333333333332</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2003,7 +2189,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2016,22 +2202,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.86</v>
+        <v>3.93</v>
       </c>
       <c r="C44" t="n">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
       <c r="D44" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="E44" t="n">
-        <v>3.84</v>
+        <v>3.93</v>
       </c>
       <c r="F44" t="n">
-        <v>1972313.1015</v>
+        <v>13690.5513</v>
       </c>
       <c r="G44" t="n">
-        <v>3.873333333333333</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2045,7 +2231,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2058,22 +2244,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="C45" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="D45" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="E45" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="F45" t="n">
-        <v>19217.6148</v>
+        <v>78000</v>
       </c>
       <c r="G45" t="n">
-        <v>3.879999999999999</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2100,22 +2286,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="C46" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="D46" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="E46" t="n">
-        <v>3.88</v>
+        <v>3.93</v>
       </c>
       <c r="F46" t="n">
-        <v>251.2886</v>
+        <v>106000</v>
       </c>
       <c r="G46" t="n">
-        <v>3.883333333333332</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2142,22 +2328,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="C47" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="D47" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="E47" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="F47" t="n">
-        <v>87641.0206</v>
+        <v>666</v>
       </c>
       <c r="G47" t="n">
-        <v>3.876666666666665</v>
+        <v>-1703259.7475</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2184,22 +2370,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="C48" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="D48" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="E48" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="F48" t="n">
-        <v>246547.7356</v>
+        <v>29877.2681</v>
       </c>
       <c r="G48" t="n">
-        <v>3.869999999999999</v>
+        <v>-1733137.0156</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2226,22 +2412,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="C49" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="D49" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="E49" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="F49" t="n">
-        <v>19217.6148</v>
+        <v>666</v>
       </c>
       <c r="G49" t="n">
-        <v>3.866666666666666</v>
+        <v>-1733137.0156</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2268,30 +2454,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="C50" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="D50" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="E50" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="F50" t="n">
-        <v>34217.7342</v>
+        <v>2061.5662</v>
       </c>
       <c r="G50" t="n">
-        <v>3.866666666666666</v>
+        <v>-1735198.5818</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.92</v>
+      </c>
       <c r="K50" t="n">
         <v>3.86</v>
       </c>
@@ -2310,30 +2498,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="C51" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="D51" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="E51" t="n">
-        <v>3.87</v>
+        <v>3.91</v>
       </c>
       <c r="F51" t="n">
-        <v>64690.9472</v>
+        <v>666</v>
       </c>
       <c r="G51" t="n">
-        <v>3.87</v>
+        <v>-1735198.5818</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.91</v>
+      </c>
       <c r="K51" t="n">
         <v>3.86</v>
       </c>
@@ -2352,30 +2542,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="C52" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="D52" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="E52" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="F52" t="n">
-        <v>145574.4342</v>
+        <v>37.9204</v>
       </c>
       <c r="G52" t="n">
-        <v>3.87</v>
+        <v>-1735236.5022</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.91</v>
+      </c>
       <c r="K52" t="n">
         <v>3.86</v>
       </c>
@@ -2394,30 +2586,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="C53" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="D53" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="E53" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="F53" t="n">
-        <v>396.8831</v>
+        <v>464.4818</v>
       </c>
       <c r="G53" t="n">
-        <v>3.863333333333333</v>
+        <v>-1735236.5022</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.9</v>
+      </c>
       <c r="K53" t="n">
         <v>3.86</v>
       </c>
@@ -2436,30 +2630,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="C54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="D54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="E54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="F54" t="n">
-        <v>2718.1234</v>
+        <v>2740.6464</v>
       </c>
       <c r="G54" t="n">
-        <v>3.856666666666667</v>
+        <v>-1735236.5022</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.9</v>
+      </c>
       <c r="K54" t="n">
         <v>3.86</v>
       </c>
@@ -2478,30 +2674,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="C55" t="n">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
       <c r="D55" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="E55" t="n">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
       <c r="F55" t="n">
-        <v>286981</v>
+        <v>11679.5886</v>
       </c>
       <c r="G55" t="n">
-        <v>3.85</v>
+        <v>-1746916.0908</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.9</v>
+      </c>
       <c r="K55" t="n">
         <v>3.86</v>
       </c>
@@ -2532,18 +2730,20 @@
         <v>3.89</v>
       </c>
       <c r="F56" t="n">
-        <v>1257.5321</v>
+        <v>2724.9357</v>
       </c>
       <c r="G56" t="n">
-        <v>3.863333333333334</v>
+        <v>-1746916.0908</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.89</v>
+      </c>
       <c r="K56" t="n">
         <v>3.86</v>
       </c>
@@ -2574,18 +2774,20 @@
         <v>3.89</v>
       </c>
       <c r="F57" t="n">
-        <v>1951.928</v>
+        <v>14020</v>
       </c>
       <c r="G57" t="n">
-        <v>3.876666666666667</v>
+        <v>-1746916.0908</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.89</v>
+      </c>
       <c r="K57" t="n">
         <v>3.86</v>
       </c>
@@ -2604,30 +2806,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="C58" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="D58" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="E58" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>43395.9897</v>
       </c>
       <c r="G58" t="n">
-        <v>3.880000000000001</v>
+        <v>-1746916.0908</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.89</v>
+      </c>
       <c r="K58" t="n">
         <v>3.86</v>
       </c>
@@ -2646,30 +2850,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="C59" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="D59" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="E59" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="F59" t="n">
-        <v>421.7948</v>
+        <v>15048.3671</v>
       </c>
       <c r="G59" t="n">
-        <v>3.883333333333334</v>
+        <v>-1761964.4579</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.89</v>
+      </c>
       <c r="K59" t="n">
         <v>3.86</v>
       </c>
@@ -2688,30 +2894,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="C60" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="D60" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="E60" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="F60" t="n">
-        <v>17699.2307</v>
+        <v>15386.1947</v>
       </c>
       <c r="G60" t="n">
-        <v>3.886666666666667</v>
+        <v>-1761964.4579</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K60" t="n">
         <v>3.86</v>
       </c>
@@ -2730,30 +2938,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="C61" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="D61" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="E61" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="F61" t="n">
-        <v>101</v>
+        <v>27057.6954</v>
       </c>
       <c r="G61" t="n">
-        <v>3.886666666666667</v>
+        <v>-1789022.1533</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.88</v>
+      </c>
       <c r="K61" t="n">
         <v>3.86</v>
       </c>
@@ -2772,30 +2982,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="C62" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="D62" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="E62" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="F62" t="n">
-        <v>10861.0147</v>
+        <v>6334.5397</v>
       </c>
       <c r="G62" t="n">
-        <v>3.873333333333334</v>
+        <v>-1789022.1533</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.87</v>
+      </c>
       <c r="K62" t="n">
         <v>3.86</v>
       </c>
@@ -2814,30 +3026,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="C63" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="D63" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="E63" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="F63" t="n">
-        <v>37000</v>
+        <v>60704.3393</v>
       </c>
       <c r="G63" t="n">
-        <v>3.873333333333334</v>
+        <v>-1849726.4926</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.87</v>
+      </c>
       <c r="K63" t="n">
         <v>3.86</v>
       </c>
@@ -2856,30 +3070,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="C64" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="D64" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="E64" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="F64" t="n">
-        <v>5640</v>
+        <v>51935.4005</v>
       </c>
       <c r="G64" t="n">
-        <v>3.883333333333334</v>
+        <v>-1797791.0921</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K64" t="n">
         <v>3.86</v>
       </c>
@@ -2898,30 +3114,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="C65" t="n">
-        <v>3.92</v>
+        <v>3.86</v>
       </c>
       <c r="D65" t="n">
-        <v>3.92</v>
+        <v>3.86</v>
       </c>
       <c r="E65" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="F65" t="n">
-        <v>132000</v>
+        <v>103319.2177</v>
       </c>
       <c r="G65" t="n">
-        <v>3.903333333333334</v>
+        <v>-1901110.3098</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.87</v>
+      </c>
       <c r="K65" t="n">
         <v>3.86</v>
       </c>
@@ -2940,30 +3158,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.93</v>
+        <v>3.86</v>
       </c>
       <c r="C66" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="D66" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="E66" t="n">
-        <v>3.93</v>
+        <v>3.86</v>
       </c>
       <c r="F66" t="n">
-        <v>219000</v>
+        <v>28828.1657</v>
       </c>
       <c r="G66" t="n">
-        <v>3.916666666666667</v>
+        <v>-1901110.3098</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K66" t="n">
         <v>3.86</v>
       </c>
@@ -2982,30 +3202,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="C67" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="D67" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="E67" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="F67" t="n">
-        <v>194000</v>
+        <v>66108.7041</v>
       </c>
       <c r="G67" t="n">
-        <v>3.936666666666667</v>
+        <v>-1967219.0139</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K67" t="n">
         <v>3.86</v>
       </c>
@@ -3024,30 +3246,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="C68" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="D68" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="E68" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="F68" t="n">
-        <v>496972.2985</v>
+        <v>3197.1153</v>
       </c>
       <c r="G68" t="n">
-        <v>3.946666666666667</v>
+        <v>-1964021.8986</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.85</v>
+      </c>
       <c r="K68" t="n">
         <v>3.86</v>
       </c>
@@ -3066,30 +3290,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="C69" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="D69" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="E69" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="F69" t="n">
-        <v>77593.18180000001</v>
+        <v>96746.04949999999</v>
       </c>
       <c r="G69" t="n">
-        <v>3.953333333333334</v>
+        <v>-1964021.8986</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K69" t="n">
         <v>3.86</v>
       </c>
@@ -3108,30 +3334,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="C70" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="D70" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="E70" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="F70" t="n">
-        <v>61980.8182</v>
+        <v>30201.2462</v>
       </c>
       <c r="G70" t="n">
-        <v>3.956666666666667</v>
+        <v>-1964021.8986</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K70" t="n">
         <v>3.86</v>
       </c>
@@ -3150,30 +3378,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="C71" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="D71" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="E71" t="n">
-        <v>3.96</v>
+        <v>3.86</v>
       </c>
       <c r="F71" t="n">
-        <v>99750</v>
+        <v>114252.5662</v>
       </c>
       <c r="G71" t="n">
-        <v>3.960000000000001</v>
+        <v>-1964021.8986</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K71" t="n">
         <v>3.86</v>
       </c>
@@ -3192,30 +3422,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="C72" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="D72" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="E72" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="F72" t="n">
-        <v>12.6288</v>
+        <v>2072.0929</v>
       </c>
       <c r="G72" t="n">
-        <v>3.963333333333335</v>
+        <v>-1961949.8057</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K72" t="n">
         <v>3.86</v>
       </c>
@@ -3234,30 +3466,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.98</v>
+        <v>3.86</v>
       </c>
       <c r="C73" t="n">
-        <v>3.98</v>
+        <v>3.89</v>
       </c>
       <c r="D73" t="n">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="E73" t="n">
-        <v>3.98</v>
+        <v>3.84</v>
       </c>
       <c r="F73" t="n">
-        <v>14214.5141</v>
+        <v>1972313.1015</v>
       </c>
       <c r="G73" t="n">
-        <v>3.970000000000001</v>
+        <v>10363.2958000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.87</v>
+      </c>
       <c r="K73" t="n">
         <v>3.86</v>
       </c>
@@ -3276,22 +3510,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="F74" t="n">
-        <v>13.125</v>
+        <v>19217.6148</v>
       </c>
       <c r="G74" t="n">
-        <v>3.983333333333334</v>
+        <v>-8854.318999999803</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3318,22 +3552,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="C75" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="D75" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="E75" t="n">
-        <v>3.97</v>
+        <v>3.88</v>
       </c>
       <c r="F75" t="n">
-        <v>154268.4109</v>
+        <v>251.2886</v>
       </c>
       <c r="G75" t="n">
-        <v>3.983333333333334</v>
+        <v>-8854.318999999803</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3360,22 +3594,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="C76" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="D76" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E76" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>87641.0206</v>
       </c>
       <c r="G76" t="n">
-        <v>3.986666666666668</v>
+        <v>-96495.3395999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3402,22 +3636,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="C77" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="D77" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E77" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="F77" t="n">
-        <v>2507</v>
+        <v>246547.7356</v>
       </c>
       <c r="G77" t="n">
-        <v>3.983333333333334</v>
+        <v>-343043.0751999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3444,22 +3678,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="C78" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="D78" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E78" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="F78" t="n">
-        <v>16358.5417</v>
+        <v>19217.6148</v>
       </c>
       <c r="G78" t="n">
-        <v>3.990000000000001</v>
+        <v>-323825.4603999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3486,22 +3720,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="C79" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="D79" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E79" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="F79" t="n">
-        <v>107500</v>
+        <v>34217.7342</v>
       </c>
       <c r="G79" t="n">
-        <v>3.990000000000001</v>
+        <v>-323825.4603999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3528,30 +3762,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.96</v>
+        <v>3.87</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="E80" t="n">
-        <v>3.96</v>
+        <v>3.87</v>
       </c>
       <c r="F80" t="n">
-        <v>248701.3342</v>
+        <v>64690.9472</v>
       </c>
       <c r="G80" t="n">
-        <v>3.993333333333334</v>
+        <v>-323825.4603999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.87</v>
+      </c>
       <c r="K80" t="n">
         <v>3.86</v>
       </c>
@@ -3570,22 +3806,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="F81" t="n">
-        <v>89874.85030000001</v>
+        <v>145574.4342</v>
       </c>
       <c r="G81" t="n">
-        <v>3.996666666666667</v>
+        <v>-323825.4603999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3612,22 +3848,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="F82" t="n">
-        <v>7038.075</v>
+        <v>396.8831</v>
       </c>
       <c r="G82" t="n">
-        <v>4.000000000000001</v>
+        <v>-324222.3434999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3654,30 +3890,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="F83" t="n">
-        <v>50855.826</v>
+        <v>2718.1234</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>-324222.3434999998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.85</v>
+      </c>
       <c r="K83" t="n">
         <v>3.86</v>
       </c>
@@ -3696,22 +3934,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="C84" t="n">
-        <v>4.03</v>
+        <v>3.85</v>
       </c>
       <c r="D84" t="n">
-        <v>4.03</v>
+        <v>3.86</v>
       </c>
       <c r="E84" t="n">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="F84" t="n">
-        <v>10000</v>
+        <v>286981</v>
       </c>
       <c r="G84" t="n">
-        <v>4.010000000000001</v>
+        <v>-324222.3434999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3738,22 +3976,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.03</v>
+        <v>3.89</v>
       </c>
       <c r="C85" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="D85" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="E85" t="n">
-        <v>4.03</v>
+        <v>3.89</v>
       </c>
       <c r="F85" t="n">
-        <v>20000</v>
+        <v>1257.5321</v>
       </c>
       <c r="G85" t="n">
-        <v>4.023333333333333</v>
+        <v>-322964.8113999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3780,22 +4018,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="C86" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="D86" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="E86" t="n">
-        <v>4.04</v>
+        <v>3.89</v>
       </c>
       <c r="F86" t="n">
-        <v>458561.8791</v>
+        <v>1951.928</v>
       </c>
       <c r="G86" t="n">
-        <v>4.036666666666666</v>
+        <v>-322964.8113999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3822,30 +4060,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
       </c>
       <c r="C87" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
       </c>
       <c r="D87" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
       </c>
       <c r="E87" t="n">
-        <v>4.04</v>
+        <v>3.86</v>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G87" t="n">
-        <v>4.039999999999999</v>
+        <v>-323964.8113999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.89</v>
+      </c>
       <c r="K87" t="n">
         <v>3.86</v>
       </c>
@@ -3864,22 +4104,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="C88" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="E88" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="F88" t="n">
-        <v>14.8514</v>
+        <v>421.7948</v>
       </c>
       <c r="G88" t="n">
-        <v>4.039999999999999</v>
+        <v>-323543.0165999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3906,22 +4146,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="C89" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="E89" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="F89" t="n">
-        <v>10389.2289</v>
+        <v>17699.2307</v>
       </c>
       <c r="G89" t="n">
-        <v>4.033333333333332</v>
+        <v>-323543.0165999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3948,22 +4188,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="C90" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="D90" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="E90" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="F90" t="n">
-        <v>115714.9999</v>
+        <v>101</v>
       </c>
       <c r="G90" t="n">
-        <v>4.016666666666666</v>
+        <v>-323644.0165999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3990,22 +4230,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="C91" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="D91" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="E91" t="n">
-        <v>4.02</v>
+        <v>3.86</v>
       </c>
       <c r="F91" t="n">
-        <v>17826</v>
+        <v>10861.0147</v>
       </c>
       <c r="G91" t="n">
-        <v>4.009999999999999</v>
+        <v>-323644.0165999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4032,22 +4272,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="C92" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="D92" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="E92" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="F92" t="n">
-        <v>508.4156</v>
+        <v>37000</v>
       </c>
       <c r="G92" t="n">
-        <v>4.009999999999999</v>
+        <v>-286644.0165999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4074,22 +4314,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.02</v>
+        <v>3.89</v>
       </c>
       <c r="C93" t="n">
-        <v>4.02</v>
+        <v>3.89</v>
       </c>
       <c r="D93" t="n">
-        <v>4.02</v>
+        <v>3.89</v>
       </c>
       <c r="E93" t="n">
-        <v>4.02</v>
+        <v>3.89</v>
       </c>
       <c r="F93" t="n">
-        <v>254.9581</v>
+        <v>5640</v>
       </c>
       <c r="G93" t="n">
-        <v>4.019999999999999</v>
+        <v>-292284.0165999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4116,22 +4356,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="C94" t="n">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="D94" t="n">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="E94" t="n">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="F94" t="n">
-        <v>400</v>
+        <v>132000</v>
       </c>
       <c r="G94" t="n">
-        <v>4.006666666666665</v>
+        <v>-160284.0165999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4158,22 +4398,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.03</v>
+        <v>3.93</v>
       </c>
       <c r="C95" t="n">
-        <v>4.03</v>
+        <v>3.94</v>
       </c>
       <c r="D95" t="n">
-        <v>4.03</v>
+        <v>3.94</v>
       </c>
       <c r="E95" t="n">
-        <v>4.03</v>
+        <v>3.93</v>
       </c>
       <c r="F95" t="n">
-        <v>128000</v>
+        <v>219000</v>
       </c>
       <c r="G95" t="n">
-        <v>4.009999999999999</v>
+        <v>58715.98340000014</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4200,22 +4440,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.02</v>
+        <v>3.94</v>
       </c>
       <c r="C96" t="n">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="D96" t="n">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="E96" t="n">
-        <v>4.02</v>
+        <v>3.94</v>
       </c>
       <c r="F96" t="n">
-        <v>73414.39205955336</v>
+        <v>194000</v>
       </c>
       <c r="G96" t="n">
-        <v>4.013333333333333</v>
+        <v>252715.9834000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4242,22 +4482,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="C97" t="n">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="D97" t="n">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="E97" t="n">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="F97" t="n">
-        <v>61499.2645</v>
+        <v>496972.2985</v>
       </c>
       <c r="G97" t="n">
-        <v>4.033333333333332</v>
+        <v>252715.9834000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4284,22 +4524,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="C98" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="D98" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="E98" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="F98" t="n">
-        <v>110275.1817</v>
+        <v>77593.18180000001</v>
       </c>
       <c r="G98" t="n">
-        <v>4.036666666666665</v>
+        <v>330309.1652000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4326,22 +4566,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="C99" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="D99" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="E99" t="n">
-        <v>4.04</v>
+        <v>3.96</v>
       </c>
       <c r="F99" t="n">
-        <v>80042.5254</v>
+        <v>61980.8182</v>
       </c>
       <c r="G99" t="n">
-        <v>4.043333333333332</v>
+        <v>330309.1652000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4368,22 +4608,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="C100" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="D100" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="E100" t="n">
-        <v>4.05</v>
+        <v>3.96</v>
       </c>
       <c r="F100" t="n">
-        <v>40176.6418</v>
+        <v>99750</v>
       </c>
       <c r="G100" t="n">
-        <v>4.046666666666666</v>
+        <v>330309.1652000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4410,22 +4650,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="C101" t="n">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="D101" t="n">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="E101" t="n">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="F101" t="n">
-        <v>29111.9895</v>
+        <v>12.6288</v>
       </c>
       <c r="G101" t="n">
-        <v>4.05</v>
+        <v>330321.7940000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4452,22 +4692,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C102" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="D102" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="E102" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="F102" t="n">
-        <v>238565.214</v>
+        <v>14214.5141</v>
       </c>
       <c r="G102" t="n">
-        <v>4.043333333333333</v>
+        <v>344536.3081000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4494,22 +4734,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="C103" t="n">
-        <v>4.07</v>
+        <v>4</v>
       </c>
       <c r="D103" t="n">
-        <v>4.07</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
-        <v>59720</v>
+        <v>13.125</v>
       </c>
       <c r="G103" t="n">
-        <v>4.05</v>
+        <v>344549.4331000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4536,22 +4776,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="C104" t="n">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="D104" t="n">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="E104" t="n">
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>154268.4109</v>
       </c>
       <c r="G104" t="n">
-        <v>4.053333333333332</v>
+        <v>190281.0222000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4578,22 +4818,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="C105" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="D105" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="E105" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="F105" t="n">
-        <v>10819.9769</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>4.063333333333332</v>
+        <v>190381.0222000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4620,22 +4860,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="C106" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="D106" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="E106" t="n">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="F106" t="n">
-        <v>2000</v>
+        <v>2507</v>
       </c>
       <c r="G106" t="n">
-        <v>4.059999999999998</v>
+        <v>190381.0222000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4662,22 +4902,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="C107" t="n">
-        <v>4.04</v>
+        <v>3.99</v>
       </c>
       <c r="D107" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="E107" t="n">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="F107" t="n">
-        <v>759044.581</v>
+        <v>16358.5417</v>
       </c>
       <c r="G107" t="n">
-        <v>4.053333333333331</v>
+        <v>190381.0222000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4704,22 +4944,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="C108" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="D108" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="E108" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="F108" t="n">
-        <v>431000</v>
+        <v>107500</v>
       </c>
       <c r="G108" t="n">
-        <v>4.059999999999999</v>
+        <v>190381.0222000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4746,22 +4986,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
       <c r="C109" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="D109" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>4.08</v>
+        <v>3.96</v>
       </c>
       <c r="F109" t="n">
-        <v>30929</v>
+        <v>248701.3342</v>
       </c>
       <c r="G109" t="n">
-        <v>4.069999999999999</v>
+        <v>439082.3564000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4788,22 +5028,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="D110" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="F110" t="n">
-        <v>199304.3127</v>
+        <v>89874.85030000001</v>
       </c>
       <c r="G110" t="n">
-        <v>4.096666666666667</v>
+        <v>439082.3564000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4830,22 +5070,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.16</v>
+        <v>4</v>
       </c>
       <c r="C111" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>4.16</v>
+        <v>4</v>
       </c>
       <c r="F111" t="n">
-        <v>60000</v>
+        <v>7038.075</v>
       </c>
       <c r="G111" t="n">
-        <v>4.13</v>
+        <v>439082.3564000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4872,28 +5112,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="D112" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="F112" t="n">
-        <v>245917.4641148325</v>
+        <v>50855.826</v>
       </c>
       <c r="G112" t="n">
-        <v>4.16</v>
+        <v>439082.3564000002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -4901,47 +5141,51 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>1.077901554404145</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1.025974025974026</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="C113" t="n">
-        <v>4.17</v>
+        <v>4.03</v>
       </c>
       <c r="D113" t="n">
-        <v>4.17</v>
+        <v>4.03</v>
       </c>
       <c r="E113" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="F113" t="n">
-        <v>57824.94</v>
+        <v>10000</v>
       </c>
       <c r="G113" t="n">
-        <v>4.176666666666666</v>
+        <v>449082.3564000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4952,32 +5196,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="C114" t="n">
-        <v>4.14</v>
+        <v>4.04</v>
       </c>
       <c r="D114" t="n">
-        <v>4.14</v>
+        <v>4.04</v>
       </c>
       <c r="E114" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="F114" t="n">
-        <v>9004.200000000001</v>
+        <v>20000</v>
       </c>
       <c r="G114" t="n">
-        <v>4.163333333333333</v>
+        <v>469082.3564000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4988,32 +5238,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="C115" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="D115" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="E115" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="F115" t="n">
-        <v>9004</v>
+        <v>458561.8791</v>
       </c>
       <c r="G115" t="n">
-        <v>4.156666666666666</v>
+        <v>469082.3564000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5024,32 +5280,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="C116" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="D116" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="E116" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="F116" t="n">
-        <v>65007.143</v>
+        <v>5000</v>
       </c>
       <c r="G116" t="n">
-        <v>4.153333333333333</v>
+        <v>469082.3564000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5060,32 +5322,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="C117" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="D117" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="E117" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="F117" t="n">
-        <v>14777.2182</v>
+        <v>14.8514</v>
       </c>
       <c r="G117" t="n">
-        <v>4.163333333333333</v>
+        <v>469082.3564000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5096,32 +5364,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.14</v>
+        <v>4.02</v>
       </c>
       <c r="C118" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="D118" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="E118" t="n">
-        <v>4.14</v>
+        <v>4.02</v>
       </c>
       <c r="F118" t="n">
-        <v>89838.2283</v>
+        <v>10389.2289</v>
       </c>
       <c r="G118" t="n">
-        <v>4.166666666666665</v>
+        <v>458693.1275000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5132,32 +5406,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="C119" t="n">
-        <v>4.17</v>
+        <v>3.99</v>
       </c>
       <c r="D119" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="E119" t="n">
-        <v>4.17</v>
+        <v>3.99</v>
       </c>
       <c r="F119" t="n">
-        <v>419000</v>
+        <v>115714.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>4.169999999999998</v>
+        <v>342978.1276000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5168,32 +5448,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.15</v>
+        <v>4.02</v>
       </c>
       <c r="C120" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="D120" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="E120" t="n">
-        <v>4.09</v>
+        <v>4.02</v>
       </c>
       <c r="F120" t="n">
-        <v>306177.6705</v>
+        <v>17826</v>
       </c>
       <c r="G120" t="n">
-        <v>4.169999999999997</v>
+        <v>360804.1276000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5204,32 +5490,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="C121" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="D121" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="E121" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="F121" t="n">
-        <v>120000</v>
+        <v>508.4156</v>
       </c>
       <c r="G121" t="n">
-        <v>4.17333333333333</v>
+        <v>360804.1276000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5240,32 +5532,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="C122" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="D122" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="E122" t="n">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="F122" t="n">
-        <v>591852.0794851675</v>
+        <v>254.9581</v>
       </c>
       <c r="G122" t="n">
-        <v>4.176666666666663</v>
+        <v>360804.1276000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5276,32 +5574,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="C123" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="D123" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="E123" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="F123" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G123" t="n">
-        <v>4.179999999999995</v>
+        <v>360404.1276000002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5312,32 +5616,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="C124" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="D124" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="E124" t="n">
-        <v>4.14</v>
+        <v>4.03</v>
       </c>
       <c r="F124" t="n">
-        <v>103009.6991148325</v>
+        <v>128000</v>
       </c>
       <c r="G124" t="n">
-        <v>4.166666666666662</v>
+        <v>488404.1276000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5348,32 +5658,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="C125" t="n">
-        <v>4.17</v>
+        <v>4.03</v>
       </c>
       <c r="D125" t="n">
-        <v>4.17</v>
+        <v>4.03</v>
       </c>
       <c r="E125" t="n">
-        <v>4.17</v>
+        <v>4.02</v>
       </c>
       <c r="F125" t="n">
-        <v>127207.9136</v>
+        <v>73414.39205955336</v>
       </c>
       <c r="G125" t="n">
-        <v>4.16333333333333</v>
+        <v>488404.1276000002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5384,32 +5700,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="C126" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="D126" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="E126" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="F126" t="n">
-        <v>100</v>
+        <v>61499.2645</v>
       </c>
       <c r="G126" t="n">
-        <v>4.16333333333333</v>
+        <v>549903.3921000002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5420,32 +5742,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="C127" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="D127" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="E127" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="F127" t="n">
-        <v>9000</v>
+        <v>110275.1817</v>
       </c>
       <c r="G127" t="n">
-        <v>4.176666666666662</v>
+        <v>549903.3921000002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5456,32 +5784,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="C128" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="D128" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="E128" t="n">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="F128" t="n">
-        <v>110000</v>
+        <v>80042.5254</v>
       </c>
       <c r="G128" t="n">
-        <v>4.179999999999995</v>
+        <v>629945.9175000002</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5492,32 +5826,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="C129" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="D129" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="E129" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="F129" t="n">
-        <v>13549.0171</v>
+        <v>40176.6418</v>
       </c>
       <c r="G129" t="n">
-        <v>4.179999999999995</v>
+        <v>629945.9175000002</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5528,32 +5868,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="C130" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="D130" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="E130" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="F130" t="n">
-        <v>200940.4349</v>
+        <v>29111.9895</v>
       </c>
       <c r="G130" t="n">
-        <v>4.179999999999995</v>
+        <v>629945.9175000002</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5564,32 +5910,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="C131" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="D131" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="E131" t="n">
-        <v>4.18</v>
+        <v>4.03</v>
       </c>
       <c r="F131" t="n">
-        <v>43166</v>
+        <v>238565.214</v>
       </c>
       <c r="G131" t="n">
-        <v>4.183333333333329</v>
+        <v>391380.7035000002</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5600,32 +5952,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.19</v>
+        <v>4.05</v>
       </c>
       <c r="C132" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="D132" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="E132" t="n">
-        <v>4.19</v>
+        <v>4.05</v>
       </c>
       <c r="F132" t="n">
-        <v>361000</v>
+        <v>59720</v>
       </c>
       <c r="G132" t="n">
-        <v>4.186666666666663</v>
+        <v>451100.7035000002</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5636,32 +5994,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="C133" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="D133" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="E133" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="F133" t="n">
-        <v>410000</v>
+        <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>4.189999999999997</v>
+        <v>451000.7035000002</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5672,32 +6036,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="C134" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="D134" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="E134" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="F134" t="n">
-        <v>49975.4439</v>
+        <v>10819.9769</v>
       </c>
       <c r="G134" t="n">
-        <v>4.189999999999997</v>
+        <v>451000.7035000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5708,32 +6078,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="C135" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="D135" t="n">
-        <v>4.19</v>
+        <v>4.06</v>
       </c>
       <c r="E135" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="F135" t="n">
-        <v>411000</v>
+        <v>2000</v>
       </c>
       <c r="G135" t="n">
-        <v>4.189999999999997</v>
+        <v>451000.7035000002</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5744,32 +6120,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="C136" t="n">
-        <v>4.19</v>
+        <v>4.04</v>
       </c>
       <c r="D136" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="E136" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="F136" t="n">
-        <v>1039429</v>
+        <v>759044.581</v>
       </c>
       <c r="G136" t="n">
-        <v>4.189999999999997</v>
+        <v>-308043.8774999998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5780,32 +6162,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="C137" t="n">
-        <v>4.19</v>
+        <v>4.08</v>
       </c>
       <c r="D137" t="n">
-        <v>4.19</v>
+        <v>4.08</v>
       </c>
       <c r="E137" t="n">
-        <v>4.19</v>
+        <v>4.07</v>
       </c>
       <c r="F137" t="n">
-        <v>229800</v>
+        <v>431000</v>
       </c>
       <c r="G137" t="n">
-        <v>4.189999999999997</v>
+        <v>122956.1225000002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5816,32 +6204,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.19</v>
+        <v>4.08</v>
       </c>
       <c r="C138" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="D138" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="E138" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="F138" t="n">
-        <v>83161.8027</v>
+        <v>30929</v>
       </c>
       <c r="G138" t="n">
-        <v>4.193333333333329</v>
+        <v>153885.1225000002</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5852,32 +6246,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.19</v>
+        <v>4.09</v>
       </c>
       <c r="C139" t="n">
-        <v>4.19</v>
+        <v>4.12</v>
       </c>
       <c r="D139" t="n">
-        <v>4.19</v>
+        <v>4.12</v>
       </c>
       <c r="E139" t="n">
-        <v>4.19</v>
+        <v>4.09</v>
       </c>
       <c r="F139" t="n">
-        <v>16778.5279</v>
+        <v>199304.3127</v>
       </c>
       <c r="G139" t="n">
-        <v>4.193333333333329</v>
+        <v>353189.4352000002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5888,32 +6288,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="C140" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="D140" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="E140" t="n">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="F140" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="G140" t="n">
-        <v>4.196666666666662</v>
+        <v>413189.4352000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5924,36 +6330,1088 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F141" t="n">
+        <v>245917.4641148325</v>
+      </c>
+      <c r="G141" t="n">
+        <v>413189.4352000002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1.077901554404145</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F142" t="n">
+        <v>57824.94</v>
+      </c>
+      <c r="G142" t="n">
+        <v>355364.4952000002</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9004.200000000001</v>
+      </c>
+      <c r="G143" t="n">
+        <v>346360.2952000002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9004</v>
+      </c>
+      <c r="G144" t="n">
+        <v>355364.2952000002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>65007.143</v>
+      </c>
+      <c r="G145" t="n">
+        <v>355364.2952000002</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F146" t="n">
+        <v>14777.2182</v>
+      </c>
+      <c r="G146" t="n">
+        <v>370141.5134000002</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F147" t="n">
+        <v>89838.2283</v>
+      </c>
+      <c r="G147" t="n">
+        <v>370141.5134000002</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F148" t="n">
+        <v>419000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>370141.5134000002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F149" t="n">
+        <v>306177.6705</v>
+      </c>
+      <c r="G149" t="n">
+        <v>370141.5134000002</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F150" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>490141.5134000002</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F151" t="n">
+        <v>591852.0794851675</v>
+      </c>
+      <c r="G151" t="n">
+        <v>490141.5134000002</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>490141.5134000002</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F153" t="n">
+        <v>103009.6991148325</v>
+      </c>
+      <c r="G153" t="n">
+        <v>387131.8142851677</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F154" t="n">
+        <v>127207.9136</v>
+      </c>
+      <c r="G154" t="n">
+        <v>514339.7278851677</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
+      </c>
+      <c r="G155" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F157" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F158" t="n">
+        <v>13549.0171</v>
+      </c>
+      <c r="G158" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F159" t="n">
+        <v>200940.4349</v>
+      </c>
+      <c r="G159" t="n">
+        <v>514439.7278851677</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F160" t="n">
+        <v>43166</v>
+      </c>
+      <c r="G160" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F161" t="n">
+        <v>361000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F162" t="n">
+        <v>410000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F163" t="n">
+        <v>49975.4439</v>
+      </c>
+      <c r="G163" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F164" t="n">
+        <v>411000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1039429</v>
+      </c>
+      <c r="G165" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F166" t="n">
+        <v>229800</v>
+      </c>
+      <c r="G166" t="n">
+        <v>557605.7278851677</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C167" t="n">
         <v>4.2</v>
       </c>
-      <c r="C141" t="n">
+      <c r="D167" t="n">
         <v>4.2</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E167" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F167" t="n">
+        <v>83161.8027</v>
+      </c>
+      <c r="G167" t="n">
+        <v>640767.5305851677</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F168" t="n">
+        <v>16778.5279</v>
+      </c>
+      <c r="G168" t="n">
+        <v>623989.0026851677</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>4.2</v>
       </c>
-      <c r="E141" t="n">
+      <c r="C169" t="n">
         <v>4.2</v>
       </c>
-      <c r="F141" t="n">
+      <c r="D169" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>643989.0026851677</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F170" t="n">
         <v>80022</v>
       </c>
-      <c r="G141" t="n">
-        <v>4.196666666666662</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>643989.0026851677</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-684429.6663</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-684429.6663</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>-684429.6663</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>-612965.7791</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +583,15 @@
         <v>-619948.2842</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +616,15 @@
         <v>-594631.8286</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -710,22 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,22 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,22 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,22 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,22 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1046,22 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,22 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,22 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,22 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1214,22 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1256,22 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1298,22 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,22 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1382,22 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1424,22 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1466,22 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1508,22 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1550,22 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1592,22 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1634,22 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1676,22 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1718,22 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1760,22 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1802,22 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1842,24 +1540,21 @@
         <v>179127.6606999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1884,24 +1579,21 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1926,24 +1618,21 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1968,24 +1657,21 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2010,24 +1696,21 @@
         <v>211276.7089999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2052,24 +1735,21 @@
         <v>-1889755.8856</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2096,22 +1776,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2138,22 +1813,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2180,22 +1850,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2222,22 +1887,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2262,24 +1922,21 @@
         <v>-1703259.7475</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2304,24 +1961,21 @@
         <v>-1703259.7475</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2346,24 +2000,21 @@
         <v>-1703259.7475</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2390,22 +2041,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2432,22 +2078,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2472,26 +2113,19 @@
         <v>-1735198.5818</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2516,26 +2150,21 @@
         <v>-1735198.5818</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
         <v>3.91</v>
       </c>
-      <c r="K51" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2560,26 +2189,19 @@
         <v>-1735236.5022</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2604,26 +2226,19 @@
         <v>-1735236.5022</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2648,26 +2263,21 @@
         <v>-1735236.5022</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
         <v>3.9</v>
       </c>
-      <c r="K54" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2692,26 +2302,21 @@
         <v>-1746916.0908</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
         <v>3.9</v>
       </c>
-      <c r="K55" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2736,26 +2341,21 @@
         <v>-1746916.0908</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
         <v>3.89</v>
       </c>
-      <c r="K56" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2780,26 +2380,21 @@
         <v>-1746916.0908</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
         <v>3.89</v>
       </c>
-      <c r="K57" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2824,26 +2419,21 @@
         <v>-1746916.0908</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
         <v>3.89</v>
       </c>
-      <c r="K58" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2868,26 +2458,19 @@
         <v>-1761964.4579</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2912,26 +2495,19 @@
         <v>-1761964.4579</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2956,26 +2532,19 @@
         <v>-1789022.1533</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3000,26 +2569,19 @@
         <v>-1789022.1533</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3044,26 +2606,19 @@
         <v>-1849726.4926</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3088,26 +2643,19 @@
         <v>-1797791.0921</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3132,26 +2680,19 @@
         <v>-1901110.3098</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3176,26 +2717,19 @@
         <v>-1901110.3098</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3220,26 +2754,19 @@
         <v>-1967219.0139</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3264,26 +2791,19 @@
         <v>-1964021.8986</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3308,26 +2828,19 @@
         <v>-1964021.8986</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3352,26 +2865,19 @@
         <v>-1964021.8986</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3396,26 +2902,19 @@
         <v>-1964021.8986</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3440,26 +2939,19 @@
         <v>-1961949.8057</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3484,26 +2976,19 @@
         <v>10363.2958000002</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3530,22 +3015,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3572,22 +3052,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3614,22 +3089,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3656,22 +3126,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3698,22 +3163,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3740,22 +3200,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3780,26 +3235,19 @@
         <v>-323825.4603999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K80" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3824,24 +3272,21 @@
         <v>-323825.4603999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3866,24 +3311,21 @@
         <v>-324222.3434999998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3908,26 +3350,21 @@
         <v>-324222.3434999998</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>3.85</v>
       </c>
-      <c r="K83" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3952,24 +3389,21 @@
         <v>-324222.3434999998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3994,24 +3428,21 @@
         <v>-322964.8113999998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4038,22 +3469,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4078,26 +3504,19 @@
         <v>-323964.8113999998</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K87" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4124,22 +3543,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4166,22 +3580,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4206,24 +3615,21 @@
         <v>-323644.0165999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4248,24 +3654,21 @@
         <v>-323644.0165999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4292,22 +3695,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4334,22 +3732,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4376,22 +3769,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4418,22 +3806,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4460,22 +3843,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4502,22 +3880,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4544,22 +3917,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4586,22 +3954,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4628,22 +3991,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4670,22 +4028,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4712,22 +4065,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4754,22 +4102,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4796,22 +4139,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4838,22 +4176,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4880,22 +4213,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4922,22 +4250,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4964,22 +4287,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5006,22 +4324,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5048,22 +4361,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5090,22 +4398,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5132,22 +4435,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5174,22 +4472,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5216,22 +4509,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5258,22 +4546,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5300,22 +4583,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5342,22 +4620,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5384,22 +4657,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5426,22 +4694,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5468,22 +4731,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5510,22 +4768,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5552,22 +4805,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5594,22 +4842,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5636,22 +4879,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5678,22 +4916,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5720,22 +4953,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5762,22 +4990,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5804,22 +5027,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5846,22 +5064,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5888,22 +5101,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5930,22 +5138,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5972,22 +5175,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6014,22 +5212,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6056,22 +5249,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6098,22 +5286,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6140,22 +5323,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6182,22 +5360,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6224,22 +5397,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6266,22 +5434,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6308,22 +5471,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6348,26 +5506,17 @@
         <v>413189.4352000002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1.077901554404145</v>
-      </c>
-      <c r="N141" t="n">
-        <v>1</v>
-      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6392,18 +5541,15 @@
         <v>355364.4952000002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6428,18 +5574,15 @@
         <v>346360.2952000002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6464,18 +5607,15 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6500,18 +5640,15 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6536,18 +5673,15 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6572,18 +5706,15 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6608,18 +5739,15 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6644,18 +5772,15 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6680,18 +5805,15 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6716,18 +5838,15 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6752,18 +5871,15 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6788,18 +5904,15 @@
         <v>387131.8142851677</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6824,18 +5937,15 @@
         <v>514339.7278851677</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6860,18 +5970,15 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6896,18 +6003,15 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6932,18 +6036,15 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6968,18 +6069,15 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7004,18 +6102,15 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7040,18 +6135,15 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7076,18 +6168,15 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7112,18 +6201,15 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7148,18 +6234,15 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7184,18 +6267,15 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7220,18 +6300,15 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7256,18 +6333,15 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7292,18 +6366,15 @@
         <v>640767.5305851677</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7328,18 +6399,15 @@
         <v>623989.0026851677</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7364,18 +6432,15 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7400,20 +6465,17 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-684429.6663</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-684429.6663</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-684429.6663</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-612965.7791</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-619948.2842</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-594631.8286</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +688,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +727,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +766,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +883,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1000,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1156,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1273,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1351,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1390,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1429,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1507,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1585,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1663,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,15 +1738,15 @@
         <v>179127.6606999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1579,12 +1777,12 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1618,12 +1816,12 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1657,12 +1855,12 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1696,12 +1894,12 @@
         <v>211276.7089999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1735,12 +1933,12 @@
         <v>-1889755.8856</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1777,7 +1975,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1814,7 +2014,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1851,7 +2053,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,7 +2092,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1922,12 +2128,12 @@
         <v>-1703259.7475</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1961,12 +2167,12 @@
         <v>-1703259.7475</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2000,12 +2206,12 @@
         <v>-1703259.7475</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2042,7 +2248,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2079,7 +2287,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2116,7 +2326,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2150,12 +2362,14 @@
         <v>-1735198.5818</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>3.91</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2189,10 +2403,14 @@
         <v>-1735236.5022</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2226,10 +2444,14 @@
         <v>-1735236.5022</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2263,12 +2485,14 @@
         <v>-1735236.5022</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>3.9</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2302,12 +2526,12 @@
         <v>-1746916.0908</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2341,12 +2565,12 @@
         <v>-1746916.0908</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2380,12 +2604,12 @@
         <v>-1746916.0908</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,12 +2643,12 @@
         <v>-1746916.0908</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,7 +2685,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,7 +2724,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2535,7 +2763,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2572,7 +2802,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,10 +2838,14 @@
         <v>-1849726.4926</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2643,10 +2879,14 @@
         <v>-1797791.0921</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,10 +2920,14 @@
         <v>-1901110.3098</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,10 +2961,14 @@
         <v>-1901110.3098</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2754,10 +3002,14 @@
         <v>-1967219.0139</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,10 +3043,14 @@
         <v>-1964021.8986</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,10 +3084,14 @@
         <v>-1964021.8986</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2865,10 +3125,14 @@
         <v>-1964021.8986</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,10 +3166,14 @@
         <v>-1964021.8986</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2939,10 +3207,14 @@
         <v>-1961949.8057</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,10 +3248,14 @@
         <v>10363.2958000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,7 +3292,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3053,7 +3331,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,7 +3370,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,7 +3409,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3164,7 +3448,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,7 +3487,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,7 +3526,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,12 +3562,12 @@
         <v>-323825.4603999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,12 +3601,12 @@
         <v>-324222.3434999998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,12 +3640,12 @@
         <v>-324222.3434999998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,12 +3679,12 @@
         <v>-324222.3434999998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,12 +3718,12 @@
         <v>-322964.8113999998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3470,7 +3760,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,7 +3799,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,7 +3838,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3581,7 +3877,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3615,12 +3913,12 @@
         <v>-323644.0165999999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,12 +3952,12 @@
         <v>-323644.0165999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,7 +3994,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,7 +4033,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,7 +4072,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3807,7 +4111,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,7 +4150,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3881,7 +4189,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3918,7 +4228,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3955,7 +4267,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,7 +4306,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,7 +4345,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4066,7 +4384,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4103,7 +4423,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4140,7 +4462,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,7 +4501,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,7 +4540,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,7 +4579,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,7 +4618,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4325,7 +4657,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,7 +4696,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4399,7 +4735,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,7 +4774,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4473,7 +4813,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4510,7 +4852,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4547,7 +4891,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,7 +4930,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,7 +4969,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,7 +5008,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,7 +5047,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,7 +5086,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4769,7 +5125,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,7 +5164,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4843,7 +5203,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,7 +5242,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,7 +5281,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,7 +5320,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,7 +5359,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5028,7 +5398,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5065,7 +5437,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,7 +5476,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5139,7 +5515,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5176,7 +5554,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5213,7 +5593,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,7 +5632,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5287,7 +5671,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5324,7 +5710,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,7 +5749,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5398,7 +5788,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5435,7 +5827,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5472,7 +5866,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5506,16 +5902,20 @@
         <v>413189.4352000002</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.86</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
       <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -5541,11 +5941,17 @@
         <v>355364.4952000002</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5574,11 +5980,17 @@
         <v>346360.2952000002</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5607,11 +6019,17 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5640,11 +6058,17 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5673,11 +6097,17 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5706,11 +6136,17 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5739,11 +6175,17 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5772,11 +6214,17 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +6253,17 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +6292,17 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5871,11 +6331,17 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5904,11 +6370,17 @@
         <v>387131.8142851677</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5937,15 +6409,23 @@
         <v>514339.7278851677</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>1.075310880829016</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5970,7 +6450,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6003,7 +6483,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6036,7 +6516,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6069,7 +6549,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6102,7 +6582,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6135,7 +6615,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6168,7 +6648,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6201,7 +6681,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6234,7 +6714,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6267,7 +6747,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6300,7 +6780,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6333,7 +6813,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6366,7 +6846,7 @@
         <v>640767.5305851677</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6399,7 +6879,7 @@
         <v>623989.0026851677</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6432,7 +6912,7 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6465,7 +6945,7 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6476,6 +6956,6 @@
       <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-684429.6663</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-684429.6663</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-684429.6663</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,2459 +550,2063 @@
         <v>-612965.7791</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6982.5051</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-619948.2842</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25316.4556</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-594631.8286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10947.1064</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-605578.9350000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14361.34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-591217.5950000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15742.2268</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-575475.3682000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F11" t="n">
+        <v>104445.6112</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-575475.3682000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>285224.8695</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-290250.4987000002</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F13" t="n">
+        <v>41146.6588</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-290250.4987000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14377.4395</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-290250.4987000002</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6841.113</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-290250.4987000002</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-290250.4987000002</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15467.8208</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-305718.3195000002</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11945.6986</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-305718.3195000002</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-305718.3195000002</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F20" t="n">
+        <v>185706.4061</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-305718.3195000002</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F21" t="n">
+        <v>168247.321</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-473965.6405000002</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F22" t="n">
+        <v>120941</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-473965.6405000002</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2528.6054</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-476494.2459000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>65496.5269</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-476494.2459000002</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1620.1554</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-478114.4013000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23606.2685</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-454508.1328000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F27" t="n">
+        <v>161082.9766</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-293425.1562000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>551381.8181</v>
+      </c>
+      <c r="G28" t="n">
+        <v>257956.6618999999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F29" t="n">
+        <v>83935.533</v>
+      </c>
+      <c r="G29" t="n">
+        <v>174021.1288999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>174021.1288999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20928.9311</v>
+      </c>
+      <c r="G31" t="n">
+        <v>174021.1288999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8592.269899999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>174021.1288999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F33" t="n">
+        <v>40317.8979</v>
+      </c>
+      <c r="G33" t="n">
+        <v>174021.1288999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33216.9113</v>
+      </c>
+      <c r="G34" t="n">
+        <v>207238.0401999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F35" t="n">
+        <v>28110.3795</v>
+      </c>
+      <c r="G35" t="n">
+        <v>179127.6606999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F36" t="n">
+        <v>17775.8495</v>
+      </c>
+      <c r="G36" t="n">
+        <v>196903.5101999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F37" t="n">
+        <v>103810.9595</v>
+      </c>
+      <c r="G37" t="n">
+        <v>196903.5101999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F38" t="n">
+        <v>36516.1025</v>
+      </c>
+      <c r="G38" t="n">
+        <v>196903.5101999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F39" t="n">
+        <v>14373.1988</v>
+      </c>
+      <c r="G39" t="n">
+        <v>211276.7089999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2101032.5946</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1889755.8856</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F41" t="n">
+        <v>186803.1381</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1702952.7475</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F42" t="n">
+        <v>493</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1702459.7475</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F43" t="n">
+        <v>800</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1703259.7475</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13690.5513</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1703259.7475</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F45" t="n">
+        <v>78000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1703259.7475</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F46" t="n">
+        <v>106000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1703259.7475</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F47" t="n">
+        <v>666</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1703259.7475</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F48" t="n">
+        <v>29877.2681</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1733137.0156</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F49" t="n">
+        <v>666</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1733137.0156</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2061.5662</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1735198.5818</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F51" t="n">
+        <v>666</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1735198.5818</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>37.9204</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1735236.5022</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>464.4818</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1735236.5022</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2740.6464</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1735236.5022</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F55" t="n">
+        <v>11679.5886</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1746916.0908</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2724.9357</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1746916.0908</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F57" t="n">
+        <v>14020</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1746916.0908</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F58" t="n">
+        <v>43395.9897</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1746916.0908</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15048.3671</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1761964.4579</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F60" t="n">
+        <v>15386.1947</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1761964.4579</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F61" t="n">
+        <v>27057.6954</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1789022.1533</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6334.5397</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1789022.1533</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F63" t="n">
+        <v>60704.3393</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1849726.4926</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F64" t="n">
+        <v>51935.4005</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1797791.0921</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F65" t="n">
+        <v>103319.2177</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1901110.3098</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F66" t="n">
+        <v>28828.1657</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1901110.3098</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F67" t="n">
+        <v>66108.7041</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1967219.0139</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6982.5051</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-619948.2842</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F7" t="n">
-        <v>25316.4556</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-594631.8286</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10947.1064</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-605578.9350000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14361.34</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-591217.5950000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F10" t="n">
-        <v>15742.2268</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-575475.3682000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F11" t="n">
-        <v>104445.6112</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-575475.3682000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F12" t="n">
-        <v>285224.8695</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F13" t="n">
-        <v>41146.6588</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14377.4395</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6841.113</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15467.8208</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-305718.3195000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F18" t="n">
-        <v>11945.6986</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-305718.3195000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F19" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-305718.3195000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F20" t="n">
-        <v>185706.4061</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-305718.3195000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F21" t="n">
-        <v>168247.321</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-473965.6405000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F22" t="n">
-        <v>120941</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-473965.6405000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2528.6054</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-476494.2459000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F24" t="n">
-        <v>65496.5269</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-476494.2459000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1620.1554</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-478114.4013000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F26" t="n">
-        <v>23606.2685</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-454508.1328000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F27" t="n">
-        <v>161082.9766</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-293425.1562000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F28" t="n">
-        <v>551381.8181</v>
-      </c>
-      <c r="G28" t="n">
-        <v>257956.6618999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F29" t="n">
-        <v>83935.533</v>
-      </c>
-      <c r="G29" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F31" t="n">
-        <v>20928.9311</v>
-      </c>
-      <c r="G31" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F32" t="n">
-        <v>8592.269899999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F33" t="n">
-        <v>40317.8979</v>
-      </c>
-      <c r="G33" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33216.9113</v>
-      </c>
-      <c r="G34" t="n">
-        <v>207238.0401999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F35" t="n">
-        <v>28110.3795</v>
-      </c>
-      <c r="G35" t="n">
-        <v>179127.6606999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F36" t="n">
-        <v>17775.8495</v>
-      </c>
-      <c r="G36" t="n">
-        <v>196903.5101999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D37" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F37" t="n">
-        <v>103810.9595</v>
-      </c>
-      <c r="G37" t="n">
-        <v>196903.5101999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F38" t="n">
-        <v>36516.1025</v>
-      </c>
-      <c r="G38" t="n">
-        <v>196903.5101999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F39" t="n">
-        <v>14373.1988</v>
-      </c>
-      <c r="G39" t="n">
-        <v>211276.7089999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2101032.5946</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-1889755.8856</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="F41" t="n">
-        <v>186803.1381</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-1702952.7475</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F42" t="n">
-        <v>493</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-1702459.7475</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F43" t="n">
-        <v>800</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F44" t="n">
-        <v>13690.5513</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F45" t="n">
-        <v>78000</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F46" t="n">
-        <v>106000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F47" t="n">
-        <v>666</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="F48" t="n">
-        <v>29877.2681</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-1733137.0156</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="E49" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="F49" t="n">
-        <v>666</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-1733137.0156</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="E50" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2061.5662</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-1735198.5818</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F51" t="n">
-        <v>666</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-1735198.5818</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F52" t="n">
-        <v>37.9204</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-1735236.5022</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E53" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>464.4818</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1735236.5022</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2740.6464</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1735236.5022</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F55" t="n">
-        <v>11679.5886</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1746916.0908</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2724.9357</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1746916.0908</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F57" t="n">
-        <v>14020</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-1746916.0908</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F58" t="n">
-        <v>43395.9897</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-1746916.0908</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F59" t="n">
-        <v>15048.3671</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-1761964.4579</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F60" t="n">
-        <v>15386.1947</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1761964.4579</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F61" t="n">
-        <v>27057.6954</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1789022.1533</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D62" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E62" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6334.5397</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-1789022.1533</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F63" t="n">
-        <v>60704.3393</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1849726.4926</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F64" t="n">
-        <v>51935.4005</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1797791.0921</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F65" t="n">
-        <v>103319.2177</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1901110.3098</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F66" t="n">
-        <v>28828.1657</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1901110.3098</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D67" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E67" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F67" t="n">
-        <v>66108.7041</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1967219.0139</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3048,9 +2640,7 @@
       <c r="I68" t="n">
         <v>3.85</v>
       </c>
-      <c r="J68" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,9 +2679,7 @@
       <c r="I69" t="n">
         <v>3.86</v>
       </c>
-      <c r="J69" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,9 +2718,7 @@
       <c r="I70" t="n">
         <v>3.86</v>
       </c>
-      <c r="J70" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3171,9 +2757,7 @@
       <c r="I71" t="n">
         <v>3.86</v>
       </c>
-      <c r="J71" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,14 +2791,10 @@
         <v>-1961949.8057</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3248,14 +2828,10 @@
         <v>10363.2958000002</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,9 +2868,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,9 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,9 +2942,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3409,9 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,9 +3016,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,9 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,9 +3090,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,9 +3127,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,9 +3164,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,9 +3201,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3682,9 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,9 +3275,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,9 +3312,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,9 +3349,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,9 +3386,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3877,9 +3423,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,9 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,12 +3494,12 @@
         <v>-323644.0165999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3991,12 +3533,12 @@
         <v>-286644.0165999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,9 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,12 +3609,12 @@
         <v>-160284.0165999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4108,12 +3648,12 @@
         <v>58715.98340000014</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,9 +3690,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,9 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,9 +3764,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,9 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4303,20 +3835,16 @@
         <v>330309.1652000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.86</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -4342,17 +3870,11 @@
         <v>330321.7940000002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4381,17 +3903,11 @@
         <v>344536.3081000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4420,17 +3936,11 @@
         <v>344549.4331000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4459,17 +3969,11 @@
         <v>190281.0222000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4498,17 +4002,11 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4537,17 +4035,11 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4576,17 +4068,11 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4615,17 +4101,11 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4654,17 +4134,11 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4693,17 +4167,11 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4732,17 +4200,11 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4771,17 +4233,11 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4810,17 +4266,11 @@
         <v>449082.3564000002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4849,17 +4299,11 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4888,17 +4332,11 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4927,17 +4365,11 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4966,17 +4398,11 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5005,17 +4431,11 @@
         <v>458693.1275000002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5044,17 +4464,11 @@
         <v>342978.1276000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5083,17 +4497,11 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5122,17 +4530,11 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5161,17 +4563,11 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5200,17 +4596,11 @@
         <v>360404.1276000002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5239,17 +4629,11 @@
         <v>488404.1276000002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5278,17 +4662,11 @@
         <v>488404.1276000002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5317,17 +4695,11 @@
         <v>549903.3921000002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5356,17 +4728,11 @@
         <v>549903.3921000002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5395,17 +4761,11 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5434,17 +4794,11 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5473,17 +4827,11 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5512,17 +4860,11 @@
         <v>391380.7035000002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5551,17 +4893,11 @@
         <v>451100.7035000002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5590,17 +4926,11 @@
         <v>451000.7035000002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5632,14 +4962,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5671,14 +4995,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5710,14 +5028,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5749,14 +5061,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5788,14 +5094,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5824,17 +5124,11 @@
         <v>353189.4352000002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5866,14 +5160,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5905,14 +5193,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5944,14 +5226,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5983,14 +5259,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6022,14 +5292,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6061,14 +5325,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6100,14 +5358,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6139,14 +5391,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6178,14 +5424,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6217,14 +5457,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6256,14 +5490,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6295,14 +5523,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6334,14 +5556,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6373,14 +5589,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6409,23 +5619,15 @@
         <v>514339.7278851677</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>1.075310880829016</v>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6450,7 +5652,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6483,7 +5685,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6516,7 +5718,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6549,7 +5751,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6582,7 +5784,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6615,7 +5817,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6648,7 +5850,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6681,7 +5883,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6714,7 +5916,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6747,7 +5949,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6780,7 +5982,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6813,7 +6015,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6846,7 +6048,7 @@
         <v>640767.5305851677</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6879,7 +6081,7 @@
         <v>623989.0026851677</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6956,6 +6158,6 @@
       <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -946,7 +946,7 @@
         <v>-305718.3195000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>174021.1288999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>207238.0401999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>179127.6606999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>196903.5101999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>211276.7089999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1889755.8856</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1702952.7475</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2791,9 +2791,11 @@
         <v>-1961949.8057</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.86</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2828,9 +2830,11 @@
         <v>10363.2958000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.87</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2865,9 +2869,11 @@
         <v>-8854.318999999803</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.89</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3494,11 +3500,9 @@
         <v>-323644.0165999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3533,11 +3537,9 @@
         <v>-286644.0165999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3609,11 +3611,9 @@
         <v>-160284.0165999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3648,11 +3648,9 @@
         <v>58715.98340000014</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3835,16 +3833,18 @@
         <v>330309.1652000002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3870,11 +3870,15 @@
         <v>330321.7940000002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3903,11 +3907,15 @@
         <v>344536.3081000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3936,11 +3944,15 @@
         <v>344549.4331000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3969,11 +3981,15 @@
         <v>190281.0222000002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4002,11 +4018,15 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4035,11 +4055,15 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4068,11 +4092,15 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4101,11 +4129,15 @@
         <v>190381.0222000002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4134,11 +4166,15 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4167,11 +4203,15 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4200,11 +4240,15 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4233,11 +4277,15 @@
         <v>439082.3564000002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4266,11 +4314,15 @@
         <v>449082.3564000002</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4299,11 +4351,15 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4332,11 +4388,15 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4365,11 +4425,15 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4398,11 +4462,15 @@
         <v>469082.3564000002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4431,11 +4499,15 @@
         <v>458693.1275000002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4464,11 +4536,15 @@
         <v>342978.1276000002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4573,15 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4530,11 +4610,15 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4647,15 @@
         <v>360804.1276000002</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4684,15 @@
         <v>360404.1276000002</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4721,15 @@
         <v>488404.1276000002</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4758,15 @@
         <v>488404.1276000002</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4695,11 +4795,15 @@
         <v>549903.3921000002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4728,11 +4832,15 @@
         <v>549903.3921000002</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4761,11 +4869,15 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4794,11 +4906,15 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4827,11 +4943,15 @@
         <v>629945.9175000002</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4860,11 +4980,15 @@
         <v>391380.7035000002</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +5017,15 @@
         <v>451100.7035000002</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4926,11 +5054,15 @@
         <v>451000.7035000002</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4963,7 +5095,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4996,7 +5132,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5029,7 +5169,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5062,7 +5206,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5095,7 +5243,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5124,11 +5276,15 @@
         <v>353189.4352000002</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5161,7 +5317,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5194,7 +5354,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5223,14 +5387,16 @@
         <v>355364.4952000002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -5256,7 +5422,7 @@
         <v>346360.2952000002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5289,7 +5455,7 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5322,7 +5488,7 @@
         <v>355364.2952000002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5355,7 +5521,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5388,7 +5554,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5421,7 +5587,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5454,7 +5620,7 @@
         <v>370141.5134000002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5487,7 +5653,7 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5520,7 +5686,7 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5553,7 +5719,7 @@
         <v>490141.5134000002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5586,7 +5752,7 @@
         <v>387131.8142851677</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5619,7 +5785,7 @@
         <v>514339.7278851677</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5652,7 +5818,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5685,7 +5851,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5718,7 +5884,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5751,7 +5917,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5784,7 +5950,7 @@
         <v>514439.7278851677</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5817,7 +5983,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5850,7 +6016,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5883,7 +6049,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5916,7 +6082,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5949,7 +6115,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5982,7 +6148,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6015,7 +6181,7 @@
         <v>557605.7278851677</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6048,7 +6214,7 @@
         <v>640767.5305851677</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6081,7 +6247,7 @@
         <v>623989.0026851677</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6114,7 +6280,7 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6147,7 +6313,7 @@
         <v>643989.0026851677</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest VET.xlsx
+++ b/BackTest/2019-10-27 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>28371.7199</v>
       </c>
       <c r="G2" t="n">
-        <v>-684429.6663</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>2590.6735</v>
       </c>
       <c r="G3" t="n">
-        <v>-684429.6663</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.86</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>18531.8469</v>
       </c>
       <c r="G4" t="n">
-        <v>-684429.6663</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>71463.8872</v>
       </c>
       <c r="G5" t="n">
-        <v>-612965.7791</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>6982.5051</v>
       </c>
       <c r="G6" t="n">
-        <v>-619948.2842</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>3.89</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,23 @@
         <v>25316.4556</v>
       </c>
       <c r="G7" t="n">
-        <v>-594631.8286</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>3.85</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +659,23 @@
         <v>10947.1064</v>
       </c>
       <c r="G8" t="n">
-        <v>-605578.9350000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>3.94</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +697,21 @@
         <v>14361.34</v>
       </c>
       <c r="G9" t="n">
-        <v>-591217.5950000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +733,21 @@
         <v>15742.2268</v>
       </c>
       <c r="G10" t="n">
-        <v>-575475.3682000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +769,21 @@
         <v>104445.6112</v>
       </c>
       <c r="G11" t="n">
-        <v>-575475.3682000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +805,21 @@
         <v>285224.8695</v>
       </c>
       <c r="G12" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +841,21 @@
         <v>41146.6588</v>
       </c>
       <c r="G13" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +877,21 @@
         <v>14377.4395</v>
       </c>
       <c r="G14" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +913,21 @@
         <v>6841.113</v>
       </c>
       <c r="G15" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +949,21 @@
         <v>5000</v>
       </c>
       <c r="G16" t="n">
-        <v>-290250.4987000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +985,21 @@
         <v>15467.8208</v>
       </c>
       <c r="G17" t="n">
-        <v>-305718.3195000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1021,21 @@
         <v>11945.6986</v>
       </c>
       <c r="G18" t="n">
-        <v>-305718.3195000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1057,21 @@
         <v>20000</v>
       </c>
       <c r="G19" t="n">
-        <v>-305718.3195000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1093,21 @@
         <v>185706.4061</v>
       </c>
       <c r="G20" t="n">
-        <v>-305718.3195000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1129,21 @@
         <v>168247.321</v>
       </c>
       <c r="G21" t="n">
-        <v>-473965.6405000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1165,21 @@
         <v>120941</v>
       </c>
       <c r="G22" t="n">
-        <v>-473965.6405000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1201,21 @@
         <v>2528.6054</v>
       </c>
       <c r="G23" t="n">
-        <v>-476494.2459000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1237,21 @@
         <v>65496.5269</v>
       </c>
       <c r="G24" t="n">
-        <v>-476494.2459000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1273,21 @@
         <v>1620.1554</v>
       </c>
       <c r="G25" t="n">
-        <v>-478114.4013000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1309,21 @@
         <v>23606.2685</v>
       </c>
       <c r="G26" t="n">
-        <v>-454508.1328000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1345,21 @@
         <v>161082.9766</v>
       </c>
       <c r="G27" t="n">
-        <v>-293425.1562000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1381,21 @@
         <v>551381.8181</v>
       </c>
       <c r="G28" t="n">
-        <v>257956.6618999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1417,21 @@
         <v>83935.533</v>
       </c>
       <c r="G29" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1453,21 @@
         <v>7000</v>
       </c>
       <c r="G30" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1489,21 @@
         <v>20928.9311</v>
       </c>
       <c r="G31" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1525,21 @@
         <v>8592.269899999999</v>
       </c>
       <c r="G32" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1561,21 @@
         <v>40317.8979</v>
       </c>
       <c r="G33" t="n">
-        <v>174021.1288999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1597,21 @@
         <v>33216.9113</v>
       </c>
       <c r="G34" t="n">
-        <v>207238.0401999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1633,21 @@
         <v>28110.3795</v>
       </c>
       <c r="G35" t="n">
-        <v>179127.6606999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1669,21 @@
         <v>17775.8495</v>
       </c>
       <c r="G36" t="n">
-        <v>196903.5101999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1705,21 @@
         <v>103810.9595</v>
       </c>
       <c r="G37" t="n">
-        <v>196903.5101999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1741,21 @@
         <v>36516.1025</v>
       </c>
       <c r="G38" t="n">
-        <v>196903.5101999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1777,21 @@
         <v>14373.1988</v>
       </c>
       <c r="G39" t="n">
-        <v>211276.7089999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1813,21 @@
         <v>2101032.5946</v>
       </c>
       <c r="G40" t="n">
-        <v>-1889755.8856</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1849,21 @@
         <v>186803.1381</v>
       </c>
       <c r="G41" t="n">
-        <v>-1702952.7475</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1885,21 @@
         <v>493</v>
       </c>
       <c r="G42" t="n">
-        <v>-1702459.7475</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1921,21 @@
         <v>800</v>
       </c>
       <c r="G43" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1957,21 @@
         <v>13690.5513</v>
       </c>
       <c r="G44" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1993,21 @@
         <v>78000</v>
       </c>
       <c r="G45" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2029,21 @@
         <v>106000</v>
       </c>
       <c r="G46" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2065,21 @@
         <v>666</v>
       </c>
       <c r="G47" t="n">
-        <v>-1703259.7475</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2101,21 @@
         <v>29877.2681</v>
       </c>
       <c r="G48" t="n">
-        <v>-1733137.0156</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2137,21 @@
         <v>666</v>
       </c>
       <c r="G49" t="n">
-        <v>-1733137.0156</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2173,21 @@
         <v>2061.5662</v>
       </c>
       <c r="G50" t="n">
-        <v>-1735198.5818</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2209,21 @@
         <v>666</v>
       </c>
       <c r="G51" t="n">
-        <v>-1735198.5818</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2245,21 @@
         <v>37.9204</v>
       </c>
       <c r="G52" t="n">
-        <v>-1735236.5022</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2281,21 @@
         <v>464.4818</v>
       </c>
       <c r="G53" t="n">
-        <v>-1735236.5022</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2317,21 @@
         <v>2740.6464</v>
       </c>
       <c r="G54" t="n">
-        <v>-1735236.5022</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2353,21 @@
         <v>11679.5886</v>
       </c>
       <c r="G55" t="n">
-        <v>-1746916.0908</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2389,21 @@
         <v>2724.9357</v>
       </c>
       <c r="G56" t="n">
-        <v>-1746916.0908</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2425,21 @@
         <v>14020</v>
       </c>
       <c r="G57" t="n">
-        <v>-1746916.0908</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2461,21 @@
         <v>43395.9897</v>
       </c>
       <c r="G58" t="n">
-        <v>-1746916.0908</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2497,21 @@
         <v>15048.3671</v>
       </c>
       <c r="G59" t="n">
-        <v>-1761964.4579</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2533,21 @@
         <v>15386.1947</v>
       </c>
       <c r="G60" t="n">
-        <v>-1761964.4579</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2569,21 @@
         <v>27057.6954</v>
       </c>
       <c r="G61" t="n">
-        <v>-1789022.1533</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2605,21 @@
         <v>6334.5397</v>
       </c>
       <c r="G62" t="n">
-        <v>-1789022.1533</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2641,21 @@
         <v>60704.3393</v>
       </c>
       <c r="G63" t="n">
-        <v>-1849726.4926</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2677,21 @@
         <v>51935.4005</v>
       </c>
       <c r="G64" t="n">
-        <v>-1797791.0921</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2713,21 @@
         <v>103319.2177</v>
       </c>
       <c r="G65" t="n">
-        <v>-1901110.3098</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2749,21 @@
         <v>28828.1657</v>
       </c>
       <c r="G66" t="n">
-        <v>-1901110.3098</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,24 +2785,21 @@
         <v>66108.7041</v>
       </c>
       <c r="G67" t="n">
-        <v>-1967219.0139</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
         <v>3.86</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2632,24 +2821,21 @@
         <v>3197.1153</v>
       </c>
       <c r="G68" t="n">
-        <v>-1964021.8986</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2671,24 +2857,21 @@
         <v>96746.04949999999</v>
       </c>
       <c r="G69" t="n">
-        <v>-1964021.8986</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
         <v>3.86</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,24 +2893,21 @@
         <v>30201.2462</v>
       </c>
       <c r="G70" t="n">
-        <v>-1964021.8986</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
         <v>3.86</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2749,24 +2929,21 @@
         <v>114252.5662</v>
       </c>
       <c r="G71" t="n">
-        <v>-1964021.8986</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
         <v>3.86</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2788,24 +2965,21 @@
         <v>2072.0929</v>
       </c>
       <c r="G72" t="n">
-        <v>-1961949.8057</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
         <v>3.86</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2827,24 +3001,21 @@
         <v>1972313.1015</v>
       </c>
       <c r="G73" t="n">
-        <v>10363.2958000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2866,24 +3037,21 @@
         <v>19217.6148</v>
       </c>
       <c r="G74" t="n">
-        <v>-8854.318999999803</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>3.86</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2905,22 +3073,21 @@
         <v>251.2886</v>
       </c>
       <c r="G75" t="n">
-        <v>-8854.318999999803</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2942,22 +3109,21 @@
         <v>87641.0206</v>
       </c>
       <c r="G76" t="n">
-        <v>-96495.3395999998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2979,22 +3145,21 @@
         <v>246547.7356</v>
       </c>
       <c r="G77" t="n">
-        <v>-343043.0751999998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3016,22 +3181,21 @@
         <v>19217.6148</v>
       </c>
       <c r="G78" t="n">
-        <v>-323825.4603999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3053,22 +3217,21 @@
         <v>34217.7342</v>
       </c>
       <c r="G79" t="n">
-        <v>-323825.4603999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3090,22 +3253,21 @@
         <v>64690.9472</v>
       </c>
       <c r="G80" t="n">
-        <v>-323825.4603999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3127,22 +3289,21 @@
         <v>145574.4342</v>
       </c>
       <c r="G81" t="n">
-        <v>-323825.4603999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3164,22 +3325,21 @@
         <v>396.8831</v>
       </c>
       <c r="G82" t="n">
-        <v>-324222.3434999998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3201,22 +3361,21 @@
         <v>2718.1234</v>
       </c>
       <c r="G83" t="n">
-        <v>-324222.3434999998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3238,22 +3397,21 @@
         <v>286981</v>
       </c>
       <c r="G84" t="n">
-        <v>-324222.3434999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3275,22 +3433,21 @@
         <v>1257.5321</v>
       </c>
       <c r="G85" t="n">
-        <v>-322964.8113999998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3312,22 +3469,21 @@
         <v>1951.928</v>
       </c>
       <c r="G86" t="n">
-        <v>-322964.8113999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3349,22 +3505,21 @@
         <v>1000</v>
       </c>
       <c r="G87" t="n">
-        <v>-323964.8113999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3386,22 +3541,21 @@
         <v>421.7948</v>
       </c>
       <c r="G88" t="n">
-        <v>-323543.0165999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3423,22 +3577,21 @@
         <v>17699.2307</v>
       </c>
       <c r="G89" t="n">
-        <v>-323543.0165999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3460,22 +3613,21 @@
         <v>101</v>
       </c>
       <c r="G90" t="n">
-        <v>-323644.0165999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3497,22 +3649,21 @@
         <v>10861.0147</v>
       </c>
       <c r="G91" t="n">
-        <v>-323644.0165999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3534,22 +3685,21 @@
         <v>37000</v>
       </c>
       <c r="G92" t="n">
-        <v>-286644.0165999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3571,22 +3721,21 @@
         <v>5640</v>
       </c>
       <c r="G93" t="n">
-        <v>-292284.0165999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3608,22 +3757,21 @@
         <v>132000</v>
       </c>
       <c r="G94" t="n">
-        <v>-160284.0165999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3645,22 +3793,21 @@
         <v>219000</v>
       </c>
       <c r="G95" t="n">
-        <v>58715.98340000014</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3682,22 +3829,21 @@
         <v>194000</v>
       </c>
       <c r="G96" t="n">
-        <v>252715.9834000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3719,22 +3865,21 @@
         <v>496972.2985</v>
       </c>
       <c r="G97" t="n">
-        <v>252715.9834000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3756,22 +3901,21 @@
         <v>77593.18180000001</v>
       </c>
       <c r="G98" t="n">
-        <v>330309.1652000002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3793,22 +3937,21 @@
         <v>61980.8182</v>
       </c>
       <c r="G99" t="n">
-        <v>330309.1652000002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3830,22 +3973,21 @@
         <v>99750</v>
       </c>
       <c r="G100" t="n">
-        <v>330309.1652000002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3867,22 +4009,21 @@
         <v>12.6288</v>
       </c>
       <c r="G101" t="n">
-        <v>330321.7940000002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3904,22 +4045,21 @@
         <v>14214.5141</v>
       </c>
       <c r="G102" t="n">
-        <v>344536.3081000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3941,22 +4081,21 @@
         <v>13.125</v>
       </c>
       <c r="G103" t="n">
-        <v>344549.4331000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3978,22 +4117,21 @@
         <v>154268.4109</v>
       </c>
       <c r="G104" t="n">
-        <v>190281.0222000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4015,22 +4153,21 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>190381.0222000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4052,22 +4189,21 @@
         <v>2507</v>
       </c>
       <c r="G106" t="n">
-        <v>190381.0222000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4089,22 +4225,21 @@
         <v>16358.5417</v>
       </c>
       <c r="G107" t="n">
-        <v>190381.0222000002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4126,22 +4261,21 @@
         <v>107500</v>
       </c>
       <c r="G108" t="n">
-        <v>190381.0222000002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4163,22 +4297,21 @@
         <v>248701.3342</v>
       </c>
       <c r="G109" t="n">
-        <v>439082.3564000002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4200,22 +4333,21 @@
         <v>89874.85030000001</v>
       </c>
       <c r="G110" t="n">
-        <v>439082.3564000002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4237,22 +4369,21 @@
         <v>7038.075</v>
       </c>
       <c r="G111" t="n">
-        <v>439082.3564000002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4274,22 +4405,21 @@
         <v>50855.826</v>
       </c>
       <c r="G112" t="n">
-        <v>439082.3564000002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4311,22 +4441,21 @@
         <v>10000</v>
       </c>
       <c r="G113" t="n">
-        <v>449082.3564000002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4348,22 +4477,21 @@
         <v>20000</v>
       </c>
       <c r="G114" t="n">
-        <v>469082.3564000002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4385,22 +4513,21 @@
         <v>458561.8791</v>
       </c>
       <c r="G115" t="n">
-        <v>469082.3564000002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4422,22 +4549,21 @@
         <v>5000</v>
       </c>
       <c r="G116" t="n">
-        <v>469082.3564000002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4459,22 +4585,21 @@
         <v>14.8514</v>
       </c>
       <c r="G117" t="n">
-        <v>469082.3564000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4496,22 +4621,21 @@
         <v>10389.2289</v>
       </c>
       <c r="G118" t="n">
-        <v>458693.1275000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4533,22 +4657,21 @@
         <v>115714.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>342978.1276000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4570,22 +4693,21 @@
         <v>17826</v>
       </c>
       <c r="G120" t="n">
-        <v>360804.1276000002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4607,22 +4729,21 @@
         <v>508.4156</v>
       </c>
       <c r="G121" t="n">
-        <v>360804.1276000002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4644,22 +4765,21 @@
         <v>254.9581</v>
       </c>
       <c r="G122" t="n">
-        <v>360804.1276000002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4681,22 +4801,21 @@
         <v>400</v>
       </c>
       <c r="G123" t="n">
-        <v>360404.1276000002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4718,22 +4837,21 @@
         <v>128000</v>
       </c>
       <c r="G124" t="n">
-        <v>488404.1276000002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4755,22 +4873,21 @@
         <v>73414.39205955336</v>
       </c>
       <c r="G125" t="n">
-        <v>488404.1276000002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4792,22 +4909,21 @@
         <v>61499.2645</v>
       </c>
       <c r="G126" t="n">
-        <v>549903.3921000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4829,22 +4945,21 @@
         <v>110275.1817</v>
       </c>
       <c r="G127" t="n">
-        <v>549903.3921000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4866,22 +4981,21 @@
         <v>80042.5254</v>
       </c>
       <c r="G128" t="n">
-        <v>629945.9175000002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4903,22 +5017,21 @@
         <v>40176.6418</v>
       </c>
       <c r="G129" t="n">
-        <v>629945.9175000002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4940,22 +5053,21 @@
         <v>29111.9895</v>
       </c>
       <c r="G130" t="n">
-        <v>629945.9175000002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4977,22 +5089,21 @@
         <v>238565.214</v>
       </c>
       <c r="G131" t="n">
-        <v>391380.7035000002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5014,22 +5125,21 @@
         <v>59720</v>
       </c>
       <c r="G132" t="n">
-        <v>451100.7035000002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5051,22 +5161,21 @@
         <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>451000.7035000002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5088,22 +5197,21 @@
         <v>10819.9769</v>
       </c>
       <c r="G134" t="n">
-        <v>451000.7035000002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5125,22 +5233,21 @@
         <v>2000</v>
       </c>
       <c r="G135" t="n">
-        <v>451000.7035000002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5162,22 +5269,21 @@
         <v>759044.581</v>
       </c>
       <c r="G136" t="n">
-        <v>-308043.8774999998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5199,22 +5305,21 @@
         <v>431000</v>
       </c>
       <c r="G137" t="n">
-        <v>122956.1225000002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5236,22 +5341,21 @@
         <v>30929</v>
       </c>
       <c r="G138" t="n">
-        <v>153885.1225000002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5273,22 +5377,21 @@
         <v>199304.3127</v>
       </c>
       <c r="G139" t="n">
-        <v>353189.4352000002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5310,22 +5413,21 @@
         <v>60000</v>
       </c>
       <c r="G140" t="n">
-        <v>413189.4352000002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5347,22 +5449,21 @@
         <v>245917.4641148325</v>
       </c>
       <c r="G141" t="n">
-        <v>413189.4352000002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5384,20 +5485,21 @@
         <v>57824.94</v>
       </c>
       <c r="G142" t="n">
-        <v>355364.4952000002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
       </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5419,18 +5521,21 @@
         <v>9004.200000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>346360.2952000002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5452,18 +5557,21 @@
         <v>9004</v>
       </c>
       <c r="G144" t="n">
-        <v>355364.2952000002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5485,18 +5593,21 @@
         <v>65007.143</v>
       </c>
       <c r="G145" t="n">
-        <v>355364.2952000002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5518,18 +5629,21 @@
         <v>14777.2182</v>
       </c>
       <c r="G146" t="n">
-        <v>370141.5134000002</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5551,18 +5665,21 @@
         <v>89838.2283</v>
       </c>
       <c r="G147" t="n">
-        <v>370141.5134000002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5584,18 +5701,21 @@
         <v>419000</v>
       </c>
       <c r="G148" t="n">
-        <v>370141.5134000002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5617,18 +5737,21 @@
         <v>306177.6705</v>
       </c>
       <c r="G149" t="n">
-        <v>370141.5134000002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5650,18 +5773,21 @@
         <v>120000</v>
       </c>
       <c r="G150" t="n">
-        <v>490141.5134000002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5683,18 +5809,21 @@
         <v>591852.0794851675</v>
       </c>
       <c r="G151" t="n">
-        <v>490141.5134000002</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5716,18 +5845,21 @@
         <v>2000</v>
       </c>
       <c r="G152" t="n">
-        <v>490141.5134000002</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5749,18 +5881,23 @@
         <v>103009.6991148325</v>
       </c>
       <c r="G153" t="n">
-        <v>387131.8142851677</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1.067538860103627</v>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
-      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5782,18 +5919,15 @@
         <v>127207.9136</v>
       </c>
       <c r="G154" t="n">
-        <v>514339.7278851677</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5815,18 +5949,15 @@
         <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>514439.7278851677</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5848,18 +5979,15 @@
         <v>9000</v>
       </c>
       <c r="G156" t="n">
-        <v>514439.7278851677</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5881,18 +6009,15 @@
         <v>110000</v>
       </c>
       <c r="G157" t="n">
-        <v>514439.7278851677</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5914,18 +6039,15 @@
         <v>13549.0171</v>
       </c>
       <c r="G158" t="n">
-        <v>514439.7278851677</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5947,18 +6069,15 @@
         <v>200940.4349</v>
       </c>
       <c r="G159" t="n">
-        <v>514439.7278851677</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5980,18 +6099,15 @@
         <v>43166</v>
       </c>
       <c r="G160" t="n">
-        <v>557605.7278851677</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6013,18 +6129,15 @@
         <v>361000</v>
       </c>
       <c r="G161" t="n">
-        <v>557605.7278851677</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6046,18 +6159,15 @@
         <v>410000</v>
       </c>
       <c r="G162" t="n">
-        <v>557605.7278851677</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6079,18 +6189,15 @@
         <v>49975.4439</v>
       </c>
       <c r="G163" t="n">
-        <v>557605.7278851677</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6112,18 +6219,15 @@
         <v>411000</v>
       </c>
       <c r="G164" t="n">
-        <v>557605.7278851677</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6145,18 +6249,15 @@
         <v>1039429</v>
       </c>
       <c r="G165" t="n">
-        <v>557605.7278851677</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6178,18 +6279,15 @@
         <v>229800</v>
       </c>
       <c r="G166" t="n">
-        <v>557605.7278851677</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6211,18 +6309,15 @@
         <v>83161.8027</v>
       </c>
       <c r="G167" t="n">
-        <v>640767.5305851677</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6244,18 +6339,15 @@
         <v>16778.5279</v>
       </c>
       <c r="G168" t="n">
-        <v>623989.0026851677</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6277,18 +6369,15 @@
         <v>20000</v>
       </c>
       <c r="G169" t="n">
-        <v>643989.0026851677</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6310,18 +6399,15 @@
         <v>80022</v>
       </c>
       <c r="G170" t="n">
-        <v>643989.0026851677</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
